--- a/exekuce/update22/okresy.xlsx
+++ b/exekuce/update22/okresy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>pe</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>podil_oe</t>
+  </si>
+  <si>
+    <t>podil_oe_rank</t>
+  </si>
+  <si>
+    <t>pvo_rank</t>
+  </si>
+  <si>
+    <t>podil_vce</t>
+  </si>
+  <si>
+    <t>vce_rank</t>
   </si>
   <si>
     <t>kod_okres</t>
@@ -659,15 +677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -723,10 +741,28 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>447090</v>
@@ -782,10 +818,28 @@
       <c r="S2">
         <v>493</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>1071934</v>
+      </c>
+      <c r="U2">
+        <v>0.06922534409767765</v>
+      </c>
+      <c r="V2">
+        <v>30</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>0.7201131999191429</v>
+      </c>
+      <c r="Y2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>24747</v>
@@ -841,10 +895,28 @@
       <c r="S3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>82563</v>
+      </c>
+      <c r="U3">
+        <v>0.04969538413090609</v>
+      </c>
+      <c r="V3">
+        <v>65</v>
+      </c>
+      <c r="W3">
+        <v>38</v>
+      </c>
+      <c r="X3">
+        <v>0.768949549110407</v>
+      </c>
+      <c r="Y3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>23644</v>
@@ -900,10 +972,28 @@
       <c r="S4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>79177</v>
+      </c>
+      <c r="U4">
+        <v>0.05280573904037789</v>
+      </c>
+      <c r="V4">
+        <v>59</v>
+      </c>
+      <c r="W4">
+        <v>33</v>
+      </c>
+      <c r="X4">
+        <v>0.7677589093518297</v>
+      </c>
+      <c r="Y4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>66249</v>
@@ -959,10 +1049,28 @@
       <c r="S5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>137021</v>
+      </c>
+      <c r="U5">
+        <v>0.08570219163485888</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>53</v>
+      </c>
+      <c r="X5">
+        <v>0.7802094865025972</v>
+      </c>
+      <c r="Y5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>36127</v>
@@ -1018,10 +1126,28 @@
       <c r="S6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>85952</v>
+      </c>
+      <c r="U6">
+        <v>0.07256375651526434</v>
+      </c>
+      <c r="V6">
+        <v>26</v>
+      </c>
+      <c r="W6">
+        <v>45</v>
+      </c>
+      <c r="X6">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="Y6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>26690</v>
@@ -1077,10 +1203,28 @@
       <c r="S7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>63755</v>
+      </c>
+      <c r="U7">
+        <v>0.06738295035683475</v>
+      </c>
+      <c r="V7">
+        <v>31</v>
+      </c>
+      <c r="W7">
+        <v>31</v>
+      </c>
+      <c r="X7">
+        <v>0.7639664804469274</v>
+      </c>
+      <c r="Y7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>39614</v>
@@ -1136,10 +1280,28 @@
       <c r="S8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>90468</v>
+      </c>
+      <c r="U8">
+        <v>0.07358402971216342</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8">
+        <v>27</v>
+      </c>
+      <c r="X8">
+        <v>0.7767763256722248</v>
+      </c>
+      <c r="Y8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>34580</v>
@@ -1195,10 +1357,28 @@
       <c r="S9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>106230</v>
+      </c>
+      <c r="U9">
+        <v>0.06622423044337758</v>
+      </c>
+      <c r="V9">
+        <v>34</v>
+      </c>
+      <c r="W9">
+        <v>67</v>
+      </c>
+      <c r="X9">
+        <v>0.6763326226012794</v>
+      </c>
+      <c r="Y9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>28208</v>
@@ -1254,10 +1434,28 @@
       <c r="S10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>83269</v>
+      </c>
+      <c r="U10">
+        <v>0.05708006581080594</v>
+      </c>
+      <c r="V10">
+        <v>49</v>
+      </c>
+      <c r="W10">
+        <v>24</v>
+      </c>
+      <c r="X10">
+        <v>0.7670944666526405</v>
+      </c>
+      <c r="Y10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>34117</v>
@@ -1313,10 +1511,28 @@
       <c r="S11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>148212</v>
+      </c>
+      <c r="U11">
+        <v>0.04244595579305319</v>
+      </c>
+      <c r="V11">
+        <v>72</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>0.7100619933237959</v>
+      </c>
+      <c r="Y11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>28182</v>
@@ -1372,10 +1588,28 @@
       <c r="S12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>119423</v>
+      </c>
+      <c r="U12">
+        <v>0.04247925441497869</v>
+      </c>
+      <c r="V12">
+        <v>71</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0.7120047309284447</v>
+      </c>
+      <c r="Y12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>34721</v>
@@ -1431,10 +1665,28 @@
       <c r="S13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>96131</v>
+      </c>
+      <c r="U13">
+        <v>0.05512269715284351</v>
+      </c>
+      <c r="V13">
+        <v>55</v>
+      </c>
+      <c r="W13">
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <v>0.8024155501037932</v>
+      </c>
+      <c r="Y13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>19854</v>
@@ -1490,10 +1742,28 @@
       <c r="S14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>46102</v>
+      </c>
+      <c r="U14">
+        <v>0.07073445837490781</v>
+      </c>
+      <c r="V14">
+        <v>27</v>
+      </c>
+      <c r="W14">
+        <v>32</v>
+      </c>
+      <c r="X14">
+        <v>0.7712358172339773</v>
+      </c>
+      <c r="Y14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>72291</v>
@@ -1549,10 +1819,28 @@
       <c r="S15">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>162714</v>
+      </c>
+      <c r="U15">
+        <v>0.05961380090219649</v>
+      </c>
+      <c r="V15">
+        <v>45</v>
+      </c>
+      <c r="W15">
+        <v>34</v>
+      </c>
+      <c r="X15">
+        <v>0.7730927835051546</v>
+      </c>
+      <c r="Y15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>33104</v>
@@ -1608,10 +1896,28 @@
       <c r="S16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>50279</v>
+      </c>
+      <c r="U16">
+        <v>0.1010561069233676</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <v>64</v>
+      </c>
+      <c r="X16">
+        <v>0.7726825428065341</v>
+      </c>
+      <c r="Y16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>30013</v>
@@ -1667,10 +1973,28 @@
       <c r="S17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>75824</v>
+      </c>
+      <c r="U17">
+        <v>0.0623417387634522</v>
+      </c>
+      <c r="V17">
+        <v>43</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>0.767294266976941</v>
+      </c>
+      <c r="Y17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>24597</v>
@@ -1726,10 +2050,28 @@
       <c r="S18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>59922</v>
+      </c>
+      <c r="U18">
+        <v>0.05795867961683522</v>
+      </c>
+      <c r="V18">
+        <v>48</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>0.7990210192916787</v>
+      </c>
+      <c r="Y18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>22483</v>
@@ -1785,10 +2127,28 @@
       <c r="S19">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>42360</v>
+      </c>
+      <c r="U19">
+        <v>0.07596789423984891</v>
+      </c>
+      <c r="V19">
+        <v>23</v>
+      </c>
+      <c r="W19">
+        <v>57</v>
+      </c>
+      <c r="X19">
+        <v>0.7840273461777502</v>
+      </c>
+      <c r="Y19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>24006</v>
@@ -1844,10 +2204,28 @@
       <c r="S20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>58830</v>
+      </c>
+      <c r="U20">
+        <v>0.06357300696923339</v>
+      </c>
+      <c r="V20">
+        <v>40</v>
+      </c>
+      <c r="W20">
+        <v>48</v>
+      </c>
+      <c r="X20">
+        <v>0.763903743315508</v>
+      </c>
+      <c r="Y20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>36698</v>
@@ -1903,10 +2281,28 @@
       <c r="S21">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>85549</v>
+      </c>
+      <c r="U21">
+        <v>0.06125144653941016</v>
+      </c>
+      <c r="V21">
+        <v>44</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>0.7807251908396946</v>
+      </c>
+      <c r="Y21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>19349</v>
@@ -1962,10 +2358,28 @@
       <c r="S22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>45749</v>
+      </c>
+      <c r="U22">
+        <v>0.06931299044787864</v>
+      </c>
+      <c r="V22">
+        <v>29</v>
+      </c>
+      <c r="W22">
+        <v>49</v>
+      </c>
+      <c r="X22">
+        <v>0.7650583412172817</v>
+      </c>
+      <c r="Y22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>21199</v>
@@ -2021,10 +2435,28 @@
       <c r="S23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>72147</v>
+      </c>
+      <c r="U23">
+        <v>0.05161683784495544</v>
+      </c>
+      <c r="V23">
+        <v>62</v>
+      </c>
+      <c r="W23">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <v>0.7432867883995704</v>
+      </c>
+      <c r="Y23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>82587</v>
@@ -2080,10 +2512,28 @@
       <c r="S24">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>159071</v>
+      </c>
+      <c r="U24">
+        <v>0.09273217619804992</v>
+      </c>
+      <c r="V24">
+        <v>19</v>
+      </c>
+      <c r="W24">
+        <v>63</v>
+      </c>
+      <c r="X24">
+        <v>0.6762253406548708</v>
+      </c>
+      <c r="Y24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>20428</v>
@@ -2139,10 +2589,28 @@
       <c r="S25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>57879</v>
+      </c>
+      <c r="U25">
+        <v>0.0557024136560756</v>
+      </c>
+      <c r="V25">
+        <v>51</v>
+      </c>
+      <c r="W25">
+        <v>22</v>
+      </c>
+      <c r="X25">
+        <v>0.7655086848635235</v>
+      </c>
+      <c r="Y25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>23693</v>
@@ -2198,10 +2666,28 @@
       <c r="S26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>67444</v>
+      </c>
+      <c r="U26">
+        <v>0.05874503291619714</v>
+      </c>
+      <c r="V26">
+        <v>46</v>
+      </c>
+      <c r="W26">
+        <v>42</v>
+      </c>
+      <c r="X26">
+        <v>0.7549217566885411</v>
+      </c>
+      <c r="Y26">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>16625</v>
@@ -2257,10 +2743,28 @@
       <c r="S27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>41075</v>
+      </c>
+      <c r="U27">
+        <v>0.06544126597687158</v>
+      </c>
+      <c r="V27">
+        <v>36</v>
+      </c>
+      <c r="W27">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>0.7552083333333334</v>
+      </c>
+      <c r="Y27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>26730</v>
@@ -2316,10 +2820,28 @@
       <c r="S28">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>44629</v>
+      </c>
+      <c r="U28">
+        <v>0.1020636805664478</v>
+      </c>
+      <c r="V28">
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>39</v>
+      </c>
+      <c r="X28">
+        <v>0.722502744237102</v>
+      </c>
+      <c r="Y28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>57743</v>
@@ -2375,10 +2897,28 @@
       <c r="S29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>74699</v>
+      </c>
+      <c r="U29">
+        <v>0.1399081647679353</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>68</v>
+      </c>
+      <c r="X29">
+        <v>0.7498803942206488</v>
+      </c>
+      <c r="Y29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>59452</v>
@@ -2434,10 +2974,28 @@
       <c r="S30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>94010</v>
+      </c>
+      <c r="U30">
+        <v>0.1085735560046804</v>
+      </c>
+      <c r="V30">
+        <v>13</v>
+      </c>
+      <c r="W30">
+        <v>65</v>
+      </c>
+      <c r="X30">
+        <v>0.7702557068678358</v>
+      </c>
+      <c r="Y30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>68597</v>
@@ -2493,10 +3051,28 @@
       <c r="S31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>72047</v>
+      </c>
+      <c r="U31">
+        <v>0.1496939497827807</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>77</v>
+      </c>
+      <c r="X31">
+        <v>0.8097357440890125</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>91687</v>
@@ -2552,10 +3128,28 @@
       <c r="S32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>106225</v>
+      </c>
+      <c r="U32">
+        <v>0.1404471640385973</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>74</v>
+      </c>
+      <c r="X32">
+        <v>0.8078289429586434</v>
+      </c>
+      <c r="Y32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>103509</v>
@@ -2611,10 +3205,28 @@
       <c r="S33">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>102450</v>
+      </c>
+      <c r="U33">
+        <v>0.1532845290385554</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>62</v>
+      </c>
+      <c r="X33">
+        <v>0.8188996434029546</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>52233</v>
@@ -2670,10 +3282,28 @@
       <c r="S34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>98407</v>
+      </c>
+      <c r="U34">
+        <v>0.08372371884113936</v>
+      </c>
+      <c r="V34">
+        <v>21</v>
+      </c>
+      <c r="W34">
+        <v>54</v>
+      </c>
+      <c r="X34">
+        <v>0.7946352712707853</v>
+      </c>
+      <c r="Y34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>52604</v>
@@ -2729,10 +3359,28 @@
       <c r="S35">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>71656</v>
+      </c>
+      <c r="U35">
+        <v>0.1141007033605002</v>
+      </c>
+      <c r="V35">
+        <v>11</v>
+      </c>
+      <c r="W35">
+        <v>69</v>
+      </c>
+      <c r="X35">
+        <v>0.8129892367906066</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>109593</v>
@@ -2788,10 +3436,28 @@
       <c r="S36">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>90086</v>
+      </c>
+      <c r="U36">
+        <v>0.18034988788491</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>72</v>
+      </c>
+      <c r="X36">
+        <v>0.8337539238013172</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>100478</v>
@@ -2847,10 +3513,28 @@
       <c r="S37">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>104907</v>
+      </c>
+      <c r="U37">
+        <v>0.1476736538076582</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>75</v>
+      </c>
+      <c r="X37">
+        <v>0.8100309837335399</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>129607</v>
@@ -2906,10 +3590,28 @@
       <c r="S38">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>98014</v>
+      </c>
+      <c r="U38">
+        <v>0.1593037729303977</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>71</v>
+      </c>
+      <c r="X38">
+        <v>0.8322659152043038</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>60519</v>
@@ -2965,10 +3667,28 @@
       <c r="S39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>85564</v>
+      </c>
+      <c r="U39">
+        <v>0.1153288766303586</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>47</v>
+      </c>
+      <c r="X39">
+        <v>0.7925618159708148</v>
+      </c>
+      <c r="Y39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>45475</v>
@@ -3024,10 +3744,28 @@
       <c r="S40">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>75496</v>
+      </c>
+      <c r="U40">
+        <v>0.09287909293207587</v>
+      </c>
+      <c r="V40">
+        <v>18</v>
+      </c>
+      <c r="W40">
+        <v>51</v>
+      </c>
+      <c r="X40">
+        <v>0.7987735310895607</v>
+      </c>
+      <c r="Y40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>86942</v>
@@ -3083,10 +3821,28 @@
       <c r="S41">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>144999</v>
+      </c>
+      <c r="U41">
+        <v>0.09648342402361396</v>
+      </c>
+      <c r="V41">
+        <v>17</v>
+      </c>
+      <c r="W41">
+        <v>14</v>
+      </c>
+      <c r="X41">
+        <v>0.7886347390993567</v>
+      </c>
+      <c r="Y41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>17028</v>
@@ -3142,10 +3898,28 @@
       <c r="S42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>60305</v>
+      </c>
+      <c r="U42">
+        <v>0.05036066661139209</v>
+      </c>
+      <c r="V42">
+        <v>63</v>
+      </c>
+      <c r="W42">
+        <v>35</v>
+      </c>
+      <c r="X42">
+        <v>0.7678630227197892</v>
+      </c>
+      <c r="Y42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>46971</v>
@@ -3201,10 +3975,28 @@
       <c r="S43">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>136522</v>
+      </c>
+      <c r="U43">
+        <v>0.05516327038865531</v>
+      </c>
+      <c r="V43">
+        <v>54</v>
+      </c>
+      <c r="W43">
+        <v>23</v>
+      </c>
+      <c r="X43">
+        <v>0.7826317886070907</v>
+      </c>
+      <c r="Y43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>21170</v>
@@ -3260,10 +4052,28 @@
       <c r="S44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>66252</v>
+      </c>
+      <c r="U44">
+        <v>0.05530399082291855</v>
+      </c>
+      <c r="V44">
+        <v>53</v>
+      </c>
+      <c r="W44">
+        <v>60</v>
+      </c>
+      <c r="X44">
+        <v>0.7704694323144105</v>
+      </c>
+      <c r="Y44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>36592</v>
@@ -3319,10 +4129,28 @@
       <c r="S45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>91313</v>
+      </c>
+      <c r="U45">
+        <v>0.06498527044341988</v>
+      </c>
+      <c r="V45">
+        <v>37</v>
+      </c>
+      <c r="W45">
+        <v>40</v>
+      </c>
+      <c r="X45">
+        <v>0.8045163464779238</v>
+      </c>
+      <c r="Y45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>18880</v>
@@ -3378,10 +4206,28 @@
       <c r="S46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>65889</v>
+      </c>
+      <c r="U46">
+        <v>0.05281609980421618</v>
+      </c>
+      <c r="V46">
+        <v>58</v>
+      </c>
+      <c r="W46">
+        <v>58</v>
+      </c>
+      <c r="X46">
+        <v>0.7454022988505747</v>
+      </c>
+      <c r="Y46">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>44288</v>
@@ -3437,10 +4283,28 @@
       <c r="S47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>97490</v>
+      </c>
+      <c r="U47">
+        <v>0.07565904195302083</v>
+      </c>
+      <c r="V47">
+        <v>24</v>
+      </c>
+      <c r="W47">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.7937906724511931</v>
+      </c>
+      <c r="Y47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>24873</v>
@@ -3496,10 +4360,28 @@
       <c r="S48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>87331</v>
+      </c>
+      <c r="U48">
+        <v>0.04896314023657121</v>
+      </c>
+      <c r="V48">
+        <v>66</v>
+      </c>
+      <c r="W48">
+        <v>41</v>
+      </c>
+      <c r="X48">
+        <v>0.7726847521047708</v>
+      </c>
+      <c r="Y48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>56767</v>
@@ -3555,10 +4437,28 @@
       <c r="S49">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>143995</v>
+      </c>
+      <c r="U49">
+        <v>0.06678704121670892</v>
+      </c>
+      <c r="V49">
+        <v>32</v>
+      </c>
+      <c r="W49">
+        <v>13</v>
+      </c>
+      <c r="X49">
+        <v>0.7363003015493397</v>
+      </c>
+      <c r="Y49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>27715</v>
@@ -3614,10 +4514,28 @@
       <c r="S50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>86547</v>
+      </c>
+      <c r="U50">
+        <v>0.05605046968699089</v>
+      </c>
+      <c r="V50">
+        <v>50</v>
+      </c>
+      <c r="W50">
+        <v>56</v>
+      </c>
+      <c r="X50">
+        <v>0.7788084930942074</v>
+      </c>
+      <c r="Y50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>34510</v>
@@ -3673,10 +4591,28 @@
       <c r="S51">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>113760</v>
+      </c>
+      <c r="U51">
+        <v>0.05301511954992968</v>
+      </c>
+      <c r="V51">
+        <v>57</v>
+      </c>
+      <c r="W51">
+        <v>44</v>
+      </c>
+      <c r="X51">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="Y51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>19679</v>
@@ -3732,10 +4668,28 @@
       <c r="S52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>78830</v>
+      </c>
+      <c r="U52">
+        <v>0.0424203983255106</v>
+      </c>
+      <c r="V52">
+        <v>73</v>
+      </c>
+      <c r="W52">
+        <v>16</v>
+      </c>
+      <c r="X52">
+        <v>0.7508971291866029</v>
+      </c>
+      <c r="Y52">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>36003</v>
@@ -3791,10 +4745,28 @@
       <c r="S53">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>94004</v>
+      </c>
+      <c r="U53">
+        <v>0.05502957320965066</v>
+      </c>
+      <c r="V53">
+        <v>56</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>0.8049487724724531</v>
+      </c>
+      <c r="Y53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>17042</v>
@@ -3850,10 +4822,28 @@
       <c r="S54">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>60951</v>
+      </c>
+      <c r="U54">
+        <v>0.04378927335072435</v>
+      </c>
+      <c r="V54">
+        <v>69</v>
+      </c>
+      <c r="W54">
+        <v>36</v>
+      </c>
+      <c r="X54">
+        <v>0.7519670288497564</v>
+      </c>
+      <c r="Y54">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>27383</v>
@@ -3909,10 +4899,28 @@
       <c r="S55">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>92570</v>
+      </c>
+      <c r="U55">
+        <v>0.04542508372042778</v>
+      </c>
+      <c r="V55">
+        <v>67</v>
+      </c>
+      <c r="W55">
+        <v>18</v>
+      </c>
+      <c r="X55">
+        <v>0.7928656361474435</v>
+      </c>
+      <c r="Y55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>21034</v>
@@ -3968,10 +4976,28 @@
       <c r="S56">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>98106</v>
+      </c>
+      <c r="U56">
+        <v>0.0351252726642611</v>
+      </c>
+      <c r="V56">
+        <v>77</v>
+      </c>
+      <c r="W56">
+        <v>7</v>
+      </c>
+      <c r="X56">
+        <v>0.7809053975623912</v>
+      </c>
+      <c r="Y56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>23017</v>
@@ -4027,10 +5053,28 @@
       <c r="S57">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>89822</v>
+      </c>
+      <c r="U57">
+        <v>0.04192736746008773</v>
+      </c>
+      <c r="V57">
+        <v>74</v>
+      </c>
+      <c r="W57">
+        <v>15</v>
+      </c>
+      <c r="X57">
+        <v>0.7591609134360063</v>
+      </c>
+      <c r="Y57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>188412</v>
@@ -4086,10 +5130,28 @@
       <c r="S58">
         <v>283</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>319229</v>
+      </c>
+      <c r="U58">
+        <v>0.07885561775402611</v>
+      </c>
+      <c r="V58">
+        <v>22</v>
+      </c>
+      <c r="W58">
+        <v>19</v>
+      </c>
+      <c r="X58">
+        <v>0.7790489810511262</v>
+      </c>
+      <c r="Y58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>42887</v>
@@ -4145,10 +5207,28 @@
       <c r="S59">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>183814</v>
+      </c>
+      <c r="U59">
+        <v>0.03913738888223966</v>
+      </c>
+      <c r="V59">
+        <v>76</v>
+      </c>
+      <c r="W59">
+        <v>11</v>
+      </c>
+      <c r="X59">
+        <v>0.7532666110647762</v>
+      </c>
+      <c r="Y59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>32747</v>
@@ -4204,10 +5284,28 @@
       <c r="S60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>96915</v>
+      </c>
+      <c r="U60">
+        <v>0.06323066604756745</v>
+      </c>
+      <c r="V60">
+        <v>42</v>
+      </c>
+      <c r="W60">
+        <v>12</v>
+      </c>
+      <c r="X60">
+        <v>0.7395561357702349</v>
+      </c>
+      <c r="Y60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>38466</v>
@@ -4263,10 +5361,28 @@
       <c r="S61">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>129121</v>
+      </c>
+      <c r="U61">
+        <v>0.05275671656818023</v>
+      </c>
+      <c r="V61">
+        <v>60</v>
+      </c>
+      <c r="W61">
+        <v>20</v>
+      </c>
+      <c r="X61">
+        <v>0.7654139753376394</v>
+      </c>
+      <c r="Y61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>22577</v>
@@ -4322,10 +5438,28 @@
       <c r="S62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>76380</v>
+      </c>
+      <c r="U62">
+        <v>0.05011783189316575</v>
+      </c>
+      <c r="V62">
+        <v>64</v>
+      </c>
+      <c r="W62">
+        <v>21</v>
+      </c>
+      <c r="X62">
+        <v>0.7784743991640544</v>
+      </c>
+      <c r="Y62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>43743</v>
@@ -4381,10 +5515,28 @@
       <c r="S63">
         <v>49</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>95217</v>
+      </c>
+      <c r="U63">
+        <v>0.07043910226115084</v>
+      </c>
+      <c r="V63">
+        <v>28</v>
+      </c>
+      <c r="W63">
+        <v>43</v>
+      </c>
+      <c r="X63">
+        <v>0.7867899209780826</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>17281</v>
@@ -4440,10 +5592,28 @@
       <c r="S64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>31572</v>
+      </c>
+      <c r="U64">
+        <v>0.0970796908653237</v>
+      </c>
+      <c r="V64">
+        <v>16</v>
+      </c>
+      <c r="W64">
+        <v>70</v>
+      </c>
+      <c r="X64">
+        <v>0.7849918433931484</v>
+      </c>
+      <c r="Y64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>81228</v>
@@ -4499,10 +5669,28 @@
       <c r="S65">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>194918</v>
+      </c>
+      <c r="U65">
+        <v>0.06377553637940057</v>
+      </c>
+      <c r="V65">
+        <v>39</v>
+      </c>
+      <c r="W65">
+        <v>28</v>
+      </c>
+      <c r="X65">
+        <v>0.7757219853591827</v>
+      </c>
+      <c r="Y65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>34240</v>
@@ -4558,10 +5746,28 @@
       <c r="S66">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>90506</v>
+      </c>
+      <c r="U66">
+        <v>0.06335491569619693</v>
+      </c>
+      <c r="V66">
+        <v>41</v>
+      </c>
+      <c r="W66">
+        <v>55</v>
+      </c>
+      <c r="X66">
+        <v>0.7785141262643879</v>
+      </c>
+      <c r="Y66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>40364</v>
@@ -4617,10 +5823,28 @@
       <c r="S67">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>107651</v>
+      </c>
+      <c r="U67">
+        <v>0.06593529089372138</v>
+      </c>
+      <c r="V67">
+        <v>35</v>
+      </c>
+      <c r="W67">
+        <v>59</v>
+      </c>
+      <c r="X67">
+        <v>0.7848689771766695</v>
+      </c>
+      <c r="Y67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>34849</v>
@@ -4676,10 +5900,28 @@
       <c r="S68">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>100056</v>
+      </c>
+      <c r="U68">
+        <v>0.06391420804349564</v>
+      </c>
+      <c r="V68">
+        <v>38</v>
+      </c>
+      <c r="W68">
+        <v>46</v>
+      </c>
+      <c r="X68">
+        <v>0.7496481626270524</v>
+      </c>
+      <c r="Y68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>28945</v>
@@ -4735,10 +5977,28 @@
       <c r="S69">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>87667</v>
+      </c>
+      <c r="U69">
+        <v>0.05874502378317953</v>
+      </c>
+      <c r="V69">
+        <v>47</v>
+      </c>
+      <c r="W69">
+        <v>30</v>
+      </c>
+      <c r="X69">
+        <v>0.7625242718446602</v>
+      </c>
+      <c r="Y69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>28645</v>
@@ -4794,10 +6054,28 @@
       <c r="S70">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>118629</v>
+      </c>
+      <c r="U70">
+        <v>0.03942543560174999</v>
+      </c>
+      <c r="V70">
+        <v>75</v>
+      </c>
+      <c r="W70">
+        <v>10</v>
+      </c>
+      <c r="X70">
+        <v>0.7712208680778276</v>
+      </c>
+      <c r="Y70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>26822</v>
@@ -4853,10 +6131,28 @@
       <c r="S71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>118280</v>
+      </c>
+      <c r="U71">
+        <v>0.04412411227595536</v>
+      </c>
+      <c r="V71">
+        <v>68</v>
+      </c>
+      <c r="W71">
+        <v>37</v>
+      </c>
+      <c r="X71">
+        <v>0.7530178195056524</v>
+      </c>
+      <c r="Y71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>42584</v>
@@ -4912,10 +6208,28 @@
       <c r="S72">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>160017</v>
+      </c>
+      <c r="U72">
+        <v>0.04353912396807839</v>
+      </c>
+      <c r="V72">
+        <v>70</v>
+      </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
+      <c r="X72">
+        <v>0.7608726855174394</v>
+      </c>
+      <c r="Y72">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>51875</v>
@@ -4971,10 +6285,28 @@
       <c r="S73">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>76610</v>
+      </c>
+      <c r="U73">
+        <v>0.1131706043597442</v>
+      </c>
+      <c r="V73">
+        <v>12</v>
+      </c>
+      <c r="W73">
+        <v>50</v>
+      </c>
+      <c r="X73">
+        <v>0.8050749711649365</v>
+      </c>
+      <c r="Y73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>53102</v>
@@ -5030,10 +6362,28 @@
       <c r="S74">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>178053</v>
+      </c>
+      <c r="U74">
+        <v>0.05540485136448136</v>
+      </c>
+      <c r="V74">
+        <v>52</v>
+      </c>
+      <c r="W74">
+        <v>29</v>
+      </c>
+      <c r="X74">
+        <v>0.7663456664977192</v>
+      </c>
+      <c r="Y74">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>139178</v>
@@ -5089,10 +6439,28 @@
       <c r="S75">
         <v>43</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>205613</v>
+      </c>
+      <c r="U75">
+        <v>0.1160578368099293</v>
+      </c>
+      <c r="V75">
+        <v>9</v>
+      </c>
+      <c r="W75">
+        <v>76</v>
+      </c>
+      <c r="X75">
+        <v>0.8085320370447974</v>
+      </c>
+      <c r="Y75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>44708</v>
@@ -5148,10 +6516,28 @@
       <c r="S76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>125617</v>
+      </c>
+      <c r="U76">
+        <v>0.06663906955268793</v>
+      </c>
+      <c r="V76">
+        <v>33</v>
+      </c>
+      <c r="W76">
+        <v>66</v>
+      </c>
+      <c r="X76">
+        <v>0.7613188388484052</v>
+      </c>
+      <c r="Y76">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>40653</v>
@@ -5207,10 +6593,28 @@
       <c r="S77">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>146021</v>
+      </c>
+      <c r="U77">
+        <v>0.05201991494374097</v>
+      </c>
+      <c r="V77">
+        <v>61</v>
+      </c>
+      <c r="W77">
+        <v>52</v>
+      </c>
+      <c r="X77">
+        <v>0.7706687730384413</v>
+      </c>
+      <c r="Y77">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>206633</v>
@@ -5265,6 +6669,24 @@
       </c>
       <c r="S78">
         <v>71</v>
+      </c>
+      <c r="T78">
+        <v>265457</v>
+      </c>
+      <c r="U78">
+        <v>0.1195033470580923</v>
+      </c>
+      <c r="V78">
+        <v>8</v>
+      </c>
+      <c r="W78">
+        <v>73</v>
+      </c>
+      <c r="X78">
+        <v>0.8326450840084482</v>
+      </c>
+      <c r="Y78">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/exekuce/update22/okresy.xlsx
+++ b/exekuce/update22/okresy.xlsx
@@ -765,13 +765,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>447090</v>
+        <v>446200</v>
       </c>
       <c r="C2">
-        <v>6.025065696381645</v>
+        <v>6.086066971288276</v>
       </c>
       <c r="D2">
-        <v>74205</v>
+        <v>73315</v>
       </c>
       <c r="E2">
         <v>103851417793</v>
@@ -783,10 +783,10 @@
         <v>381896.0451315991</v>
       </c>
       <c r="H2">
-        <v>1399520.487743414</v>
+        <v>1416509.824633431</v>
       </c>
       <c r="I2">
-        <v>1037</v>
+        <v>147</v>
       </c>
       <c r="J2">
         <v>6040</v>
@@ -804,7 +804,7 @@
         <v>8776</v>
       </c>
       <c r="O2">
-        <v>20769</v>
+        <v>19879</v>
       </c>
       <c r="P2">
         <v>8047</v>
@@ -822,7 +822,7 @@
         <v>1071934</v>
       </c>
       <c r="U2">
-        <v>0.06922534409767765</v>
+        <v>0.0683950690994035</v>
       </c>
       <c r="V2">
         <v>30</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="X2">
-        <v>0.7201131999191429</v>
+        <v>0.7288549410079793</v>
       </c>
       <c r="Y2">
         <v>73</v>
@@ -842,13 +842,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>24747</v>
+        <v>24693</v>
       </c>
       <c r="C3">
-        <v>6.031440409456495</v>
+        <v>6.098542850086441</v>
       </c>
       <c r="D3">
-        <v>4103</v>
+        <v>4049</v>
       </c>
       <c r="E3">
         <v>3692488280</v>
@@ -860,10 +860,10 @@
         <v>209107.5164366374</v>
       </c>
       <c r="H3">
-        <v>899948.3987326346</v>
+        <v>911950.6742405532</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>377</v>
@@ -881,7 +881,7 @@
         <v>445</v>
       </c>
       <c r="O3">
-        <v>948</v>
+        <v>894</v>
       </c>
       <c r="P3">
         <v>463</v>
@@ -899,7 +899,7 @@
         <v>82563</v>
       </c>
       <c r="U3">
-        <v>0.04969538413090609</v>
+        <v>0.04904133812967067</v>
       </c>
       <c r="V3">
         <v>65</v>
@@ -908,10 +908,10 @@
         <v>38</v>
       </c>
       <c r="X3">
-        <v>0.768949549110407</v>
+        <v>0.7792047419115831</v>
       </c>
       <c r="Y3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -919,13 +919,13 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>23644</v>
+        <v>23599</v>
       </c>
       <c r="C4">
-        <v>5.655106433867496</v>
+        <v>5.705754352030948</v>
       </c>
       <c r="D4">
-        <v>4181</v>
+        <v>4136</v>
       </c>
       <c r="E4">
         <v>3874019357</v>
@@ -937,10 +937,10 @@
         <v>241304.9828220859</v>
       </c>
       <c r="H4">
-        <v>926577.2200430519</v>
+        <v>936658.4518858801</v>
       </c>
       <c r="I4">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>414</v>
@@ -958,7 +958,7 @@
         <v>411</v>
       </c>
       <c r="O4">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="P4">
         <v>487</v>
@@ -976,19 +976,19 @@
         <v>79177</v>
       </c>
       <c r="U4">
-        <v>0.05280573904037789</v>
+        <v>0.05223739217196913</v>
       </c>
       <c r="V4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W4">
         <v>33</v>
       </c>
       <c r="X4">
-        <v>0.7677589093518297</v>
+        <v>0.7761121856866537</v>
       </c>
       <c r="Y4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -996,13 +996,13 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>66249</v>
+        <v>66122</v>
       </c>
       <c r="C5">
-        <v>5.641573703482926</v>
+        <v>5.692320936639119</v>
       </c>
       <c r="D5">
-        <v>11743</v>
+        <v>11616</v>
       </c>
       <c r="E5">
         <v>9558102192</v>
@@ -1014,10 +1014,10 @@
         <v>203007.067097112</v>
       </c>
       <c r="H5">
-        <v>813940.4063697523</v>
+        <v>822839.3760330578</v>
       </c>
       <c r="I5">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>1289</v>
@@ -1035,7 +1035,7 @@
         <v>1179</v>
       </c>
       <c r="O5">
-        <v>2581</v>
+        <v>2454</v>
       </c>
       <c r="P5">
         <v>1391</v>
@@ -1053,7 +1053,7 @@
         <v>137021</v>
       </c>
       <c r="U5">
-        <v>0.08570219163485888</v>
+        <v>0.0847753264098204</v>
       </c>
       <c r="V5">
         <v>20</v>
@@ -1062,10 +1062,10 @@
         <v>53</v>
       </c>
       <c r="X5">
-        <v>0.7802094865025972</v>
+        <v>0.7887396694214877</v>
       </c>
       <c r="Y5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1073,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>36127</v>
+        <v>36061</v>
       </c>
       <c r="C6">
-        <v>5.792368125701459</v>
+        <v>5.843623399773133</v>
       </c>
       <c r="D6">
-        <v>6237</v>
+        <v>6171</v>
       </c>
       <c r="E6">
         <v>5317249496</v>
@@ -1091,10 +1091,10 @@
         <v>179138.860243341</v>
       </c>
       <c r="H6">
-        <v>852533.1883918551</v>
+        <v>861651.1904067412</v>
       </c>
       <c r="I6">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>622</v>
@@ -1112,7 +1112,7 @@
         <v>567</v>
       </c>
       <c r="O6">
-        <v>1485</v>
+        <v>1419</v>
       </c>
       <c r="P6">
         <v>697</v>
@@ -1130,7 +1130,7 @@
         <v>85952</v>
       </c>
       <c r="U6">
-        <v>0.07256375651526434</v>
+        <v>0.07179588607594936</v>
       </c>
       <c r="V6">
         <v>26</v>
@@ -1139,10 +1139,10 @@
         <v>45</v>
       </c>
       <c r="X6">
-        <v>0.7619047619047619</v>
+        <v>0.7700534759358288</v>
       </c>
       <c r="Y6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1150,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>26690</v>
+        <v>26636</v>
       </c>
       <c r="C7">
-        <v>6.212756052141527</v>
+        <v>6.279113625648279</v>
       </c>
       <c r="D7">
-        <v>4296</v>
+        <v>4242</v>
       </c>
       <c r="E7">
         <v>4007462699</v>
@@ -1168,10 +1168,10 @@
         <v>225728.7789524267</v>
       </c>
       <c r="H7">
-        <v>932835.8237895716</v>
+        <v>944710.6786892975</v>
       </c>
       <c r="I7">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>467</v>
@@ -1189,7 +1189,7 @@
         <v>447</v>
       </c>
       <c r="O7">
-        <v>1014</v>
+        <v>960</v>
       </c>
       <c r="P7">
         <v>445</v>
@@ -1207,16 +1207,16 @@
         <v>63755</v>
       </c>
       <c r="U7">
-        <v>0.06738295035683475</v>
+        <v>0.06653595796408125</v>
       </c>
       <c r="V7">
         <v>31</v>
       </c>
       <c r="W7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7">
-        <v>0.7639664804469274</v>
+        <v>0.7736916548797736</v>
       </c>
       <c r="Y7">
         <v>53</v>
@@ -1227,13 +1227,13 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>39614</v>
+        <v>39529</v>
       </c>
       <c r="C8">
-        <v>5.95072855640679</v>
+        <v>6.014759586122945</v>
       </c>
       <c r="D8">
-        <v>6657</v>
+        <v>6572</v>
       </c>
       <c r="E8">
         <v>6457177349</v>
@@ -1245,10 +1245,10 @@
         <v>247425.4938271605</v>
       </c>
       <c r="H8">
-        <v>969983.0778128286</v>
+        <v>982528.507151552</v>
       </c>
       <c r="I8">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>701</v>
@@ -1266,7 +1266,7 @@
         <v>651</v>
       </c>
       <c r="O8">
-        <v>1486</v>
+        <v>1401</v>
       </c>
       <c r="P8">
         <v>721</v>
@@ -1284,19 +1284,19 @@
         <v>90468</v>
       </c>
       <c r="U8">
-        <v>0.07358402971216342</v>
+        <v>0.07264447097316178</v>
       </c>
       <c r="V8">
         <v>25</v>
       </c>
       <c r="W8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X8">
-        <v>0.7767763256722248</v>
+        <v>0.7868228849665246</v>
       </c>
       <c r="Y8">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1304,13 +1304,13 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>34580</v>
+        <v>34463</v>
       </c>
       <c r="C9">
-        <v>4.91542288557214</v>
+        <v>4.981642093090489</v>
       </c>
       <c r="D9">
-        <v>7035</v>
+        <v>6918</v>
       </c>
       <c r="E9">
         <v>5122475911</v>
@@ -1322,10 +1322,10 @@
         <v>189942.4362327358</v>
       </c>
       <c r="H9">
-        <v>728141.5651741293</v>
+        <v>740456.1883492339</v>
       </c>
       <c r="I9">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>687</v>
@@ -1343,7 +1343,7 @@
         <v>531</v>
       </c>
       <c r="O9">
-        <v>2277</v>
+        <v>2160</v>
       </c>
       <c r="P9">
         <v>914</v>
@@ -1361,16 +1361,16 @@
         <v>106230</v>
       </c>
       <c r="U9">
-        <v>0.06622423044337758</v>
+        <v>0.06512284665348772</v>
       </c>
       <c r="V9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W9">
         <v>67</v>
       </c>
       <c r="X9">
-        <v>0.6763326226012794</v>
+        <v>0.6877710320901995</v>
       </c>
       <c r="Y9">
         <v>76</v>
@@ -1381,13 +1381,13 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>28208</v>
+        <v>28147</v>
       </c>
       <c r="C10">
-        <v>5.93477803492531</v>
+        <v>5.998934356351236</v>
       </c>
       <c r="D10">
-        <v>4753</v>
+        <v>4692</v>
       </c>
       <c r="E10">
         <v>4637175513</v>
@@ -1399,10 +1399,10 @@
         <v>219163.7474638463</v>
       </c>
       <c r="H10">
-        <v>975631.288239007</v>
+        <v>988315.3267263427</v>
       </c>
       <c r="I10">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>478</v>
@@ -1420,7 +1420,7 @@
         <v>489</v>
       </c>
       <c r="O10">
-        <v>1107</v>
+        <v>1046</v>
       </c>
       <c r="P10">
         <v>497</v>
@@ -1438,7 +1438,7 @@
         <v>83269</v>
       </c>
       <c r="U10">
-        <v>0.05708006581080594</v>
+        <v>0.0563475002702086</v>
       </c>
       <c r="V10">
         <v>49</v>
@@ -1447,10 +1447,10 @@
         <v>24</v>
       </c>
       <c r="X10">
-        <v>0.7670944666526405</v>
+        <v>0.7770673486786018</v>
       </c>
       <c r="Y10">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1458,13 +1458,13 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>34117</v>
+        <v>34042</v>
       </c>
       <c r="C11">
-        <v>5.423144174217136</v>
+        <v>5.476512226512226</v>
       </c>
       <c r="D11">
-        <v>6291</v>
+        <v>6216</v>
       </c>
       <c r="E11">
         <v>9606009875</v>
@@ -1476,10 +1476,10 @@
         <v>477257.0940366972</v>
       </c>
       <c r="H11">
-        <v>1526944.821967891</v>
+        <v>1545368.384009009</v>
       </c>
       <c r="I11">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>532</v>
@@ -1497,7 +1497,7 @@
         <v>590</v>
       </c>
       <c r="O11">
-        <v>1824</v>
+        <v>1749</v>
       </c>
       <c r="P11">
         <v>756</v>
@@ -1515,16 +1515,16 @@
         <v>148212</v>
       </c>
       <c r="U11">
-        <v>0.04244595579305319</v>
+        <v>0.0419399238928022</v>
       </c>
       <c r="V11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="X11">
-        <v>0.7100619933237959</v>
+        <v>0.7186293436293436</v>
       </c>
       <c r="Y11">
         <v>75</v>
@@ -1535,13 +1535,13 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>28182</v>
+        <v>28110</v>
       </c>
       <c r="C12">
-        <v>5.555292726197516</v>
+        <v>5.619752099160336</v>
       </c>
       <c r="D12">
-        <v>5073</v>
+        <v>5002</v>
       </c>
       <c r="E12">
         <v>8447669370</v>
@@ -1553,10 +1553,10 @@
         <v>469402.7877617402</v>
       </c>
       <c r="H12">
-        <v>1665221.638083974</v>
+        <v>1688858.330667733</v>
       </c>
       <c r="I12">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>451</v>
@@ -1574,10 +1574,10 @@
         <v>524</v>
       </c>
       <c r="O12">
-        <v>1461</v>
+        <v>1391</v>
       </c>
       <c r="P12">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q12">
         <v>2066</v>
@@ -1592,16 +1592,16 @@
         <v>119423</v>
       </c>
       <c r="U12">
-        <v>0.04247925441497869</v>
+        <v>0.04188472907228926</v>
       </c>
       <c r="V12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0.7120047309284447</v>
+        <v>0.7219112355057977</v>
       </c>
       <c r="Y12">
         <v>74</v>
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>34721</v>
+        <v>34679</v>
       </c>
       <c r="C13">
-        <v>6.552368371390829</v>
+        <v>6.596728171961194</v>
       </c>
       <c r="D13">
-        <v>5299</v>
+        <v>5257</v>
       </c>
       <c r="E13">
         <v>5922625785</v>
@@ -1630,10 +1630,10 @@
         <v>275713.9928846154</v>
       </c>
       <c r="H13">
-        <v>1117687.447631629</v>
+        <v>1126617.041088073</v>
       </c>
       <c r="I13">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>478</v>
@@ -1651,7 +1651,7 @@
         <v>551</v>
       </c>
       <c r="O13">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="P13">
         <v>543</v>
@@ -1669,16 +1669,16 @@
         <v>96131</v>
       </c>
       <c r="U13">
-        <v>0.05512269715284351</v>
+        <v>0.05468579334449866</v>
       </c>
       <c r="V13">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W13">
         <v>9</v>
       </c>
       <c r="X13">
-        <v>0.8024155501037932</v>
+        <v>0.8088263268023588</v>
       </c>
       <c r="Y13">
         <v>13</v>
@@ -1689,13 +1689,13 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>19854</v>
+        <v>19826</v>
       </c>
       <c r="C14">
-        <v>6.088316467341306</v>
+        <v>6.132384781936282</v>
       </c>
       <c r="D14">
-        <v>3261</v>
+        <v>3233</v>
       </c>
       <c r="E14">
         <v>3030499704</v>
@@ -1707,10 +1707,10 @@
         <v>230743.5489267677</v>
       </c>
       <c r="H14">
-        <v>929316.0699172033</v>
+        <v>937364.5852149706</v>
       </c>
       <c r="I14">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>310</v>
@@ -1728,7 +1728,7 @@
         <v>387</v>
       </c>
       <c r="O14">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="P14">
         <v>377</v>
@@ -1746,7 +1746,7 @@
         <v>46102</v>
       </c>
       <c r="U14">
-        <v>0.07073445837490781</v>
+        <v>0.07012710945295215</v>
       </c>
       <c r="V14">
         <v>27</v>
@@ -1755,10 +1755,10 @@
         <v>32</v>
       </c>
       <c r="X14">
-        <v>0.7712358172339773</v>
+        <v>0.7779152489947417</v>
       </c>
       <c r="Y14">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1766,13 +1766,13 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>72291</v>
+        <v>72190</v>
       </c>
       <c r="C15">
-        <v>7.452680412371134</v>
+        <v>7.520575059902074</v>
       </c>
       <c r="D15">
-        <v>9700</v>
+        <v>9599</v>
       </c>
       <c r="E15">
         <v>8983420879</v>
@@ -1784,10 +1784,10 @@
         <v>217934.0698879256</v>
       </c>
       <c r="H15">
-        <v>926125.863814433</v>
+        <v>935870.4947390353</v>
       </c>
       <c r="I15">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <v>1080</v>
@@ -1805,7 +1805,7 @@
         <v>917</v>
       </c>
       <c r="O15">
-        <v>2201</v>
+        <v>2100</v>
       </c>
       <c r="P15">
         <v>977</v>
@@ -1823,7 +1823,7 @@
         <v>162714</v>
       </c>
       <c r="U15">
-        <v>0.05961380090219649</v>
+        <v>0.05899307988249321</v>
       </c>
       <c r="V15">
         <v>45</v>
@@ -1832,10 +1832,10 @@
         <v>34</v>
       </c>
       <c r="X15">
-        <v>0.7730927835051546</v>
+        <v>0.78122721116783</v>
       </c>
       <c r="Y15">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1843,13 +1843,13 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>33104</v>
+        <v>33048</v>
       </c>
       <c r="C16">
-        <v>6.515252902971856</v>
+        <v>6.576716417910448</v>
       </c>
       <c r="D16">
-        <v>5081</v>
+        <v>5025</v>
       </c>
       <c r="E16">
         <v>3791549265</v>
@@ -1861,10 +1861,10 @@
         <v>147342.1765062677</v>
       </c>
       <c r="H16">
-        <v>746221.0716394411</v>
+        <v>754537.1671641791</v>
       </c>
       <c r="I16">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>636</v>
@@ -1882,7 +1882,7 @@
         <v>464</v>
       </c>
       <c r="O16">
-        <v>1155</v>
+        <v>1099</v>
       </c>
       <c r="P16">
         <v>535</v>
@@ -1900,7 +1900,7 @@
         <v>50279</v>
       </c>
       <c r="U16">
-        <v>0.1010561069233676</v>
+        <v>0.09994232184410987</v>
       </c>
       <c r="V16">
         <v>15</v>
@@ -1909,10 +1909,10 @@
         <v>64</v>
       </c>
       <c r="X16">
-        <v>0.7726825428065341</v>
+        <v>0.7812935323383084</v>
       </c>
       <c r="Y16">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1920,13 +1920,13 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>30013</v>
+        <v>29963</v>
       </c>
       <c r="C17">
-        <v>6.349270150200973</v>
+        <v>6.406457130639299</v>
       </c>
       <c r="D17">
-        <v>4727</v>
+        <v>4677</v>
       </c>
       <c r="E17">
         <v>5980454557</v>
@@ -1938,10 +1938,10 @@
         <v>417013.2501083658</v>
       </c>
       <c r="H17">
-        <v>1265169.146816162</v>
+        <v>1278694.58135557</v>
       </c>
       <c r="I17">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>545</v>
@@ -1959,7 +1959,7 @@
         <v>506</v>
       </c>
       <c r="O17">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="P17">
         <v>527</v>
@@ -1977,7 +1977,7 @@
         <v>75824</v>
       </c>
       <c r="U17">
-        <v>0.0623417387634522</v>
+        <v>0.06168231694450306</v>
       </c>
       <c r="V17">
         <v>43</v>
@@ -1986,10 +1986,10 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>0.767294266976941</v>
+        <v>0.7754971135343168</v>
       </c>
       <c r="Y17">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1997,13 +1997,13 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>24597</v>
+        <v>24566</v>
       </c>
       <c r="C18">
-        <v>7.082349553699971</v>
+        <v>7.137129575828007</v>
       </c>
       <c r="D18">
-        <v>3473</v>
+        <v>3442</v>
       </c>
       <c r="E18">
         <v>3886607818</v>
@@ -2015,10 +2015,10 @@
         <v>330954.7039647577</v>
       </c>
       <c r="H18">
-        <v>1119092.374892024</v>
+        <v>1129171.35909355</v>
       </c>
       <c r="I18">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>388</v>
@@ -2036,7 +2036,7 @@
         <v>316</v>
       </c>
       <c r="O18">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="P18">
         <v>336</v>
@@ -2054,7 +2054,7 @@
         <v>59922</v>
       </c>
       <c r="U18">
-        <v>0.05795867961683522</v>
+        <v>0.05744134040919863</v>
       </c>
       <c r="V18">
         <v>48</v>
@@ -2063,7 +2063,7 @@
         <v>8</v>
       </c>
       <c r="X18">
-        <v>0.7990210192916787</v>
+        <v>0.8062173155142359</v>
       </c>
       <c r="Y18">
         <v>14</v>
@@ -2074,13 +2074,13 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>22483</v>
+        <v>22441</v>
       </c>
       <c r="C19">
-        <v>6.98663766314481</v>
+        <v>7.06580604534005</v>
       </c>
       <c r="D19">
-        <v>3218</v>
+        <v>3176</v>
       </c>
       <c r="E19">
         <v>2543379753</v>
@@ -2092,10 +2092,10 @@
         <v>164178.4498879283</v>
       </c>
       <c r="H19">
-        <v>790360.3955873214</v>
+        <v>800812.2647984887</v>
       </c>
       <c r="I19">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <v>364</v>
@@ -2113,7 +2113,7 @@
         <v>303</v>
       </c>
       <c r="O19">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="P19">
         <v>349</v>
@@ -2131,19 +2131,19 @@
         <v>42360</v>
       </c>
       <c r="U19">
-        <v>0.07596789423984891</v>
+        <v>0.07497639282341832</v>
       </c>
       <c r="V19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W19">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X19">
-        <v>0.7840273461777502</v>
+        <v>0.7943954659949622</v>
       </c>
       <c r="Y19">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2151,13 +2151,13 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>24006</v>
+        <v>23948</v>
       </c>
       <c r="C20">
-        <v>6.418716577540107</v>
+        <v>6.504073872895166</v>
       </c>
       <c r="D20">
-        <v>3740</v>
+        <v>3682</v>
       </c>
       <c r="E20">
         <v>3096641797</v>
@@ -2169,10 +2169,10 @@
         <v>183387.9447971295</v>
       </c>
       <c r="H20">
-        <v>827979.0901069519</v>
+        <v>841021.6721890277</v>
       </c>
       <c r="I20">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>417</v>
@@ -2190,7 +2190,7 @@
         <v>341</v>
       </c>
       <c r="O20">
-        <v>883</v>
+        <v>825</v>
       </c>
       <c r="P20">
         <v>449</v>
@@ -2208,19 +2208,19 @@
         <v>58830</v>
       </c>
       <c r="U20">
-        <v>0.06357300696923339</v>
+        <v>0.06258711541730409</v>
       </c>
       <c r="V20">
         <v>40</v>
       </c>
       <c r="W20">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X20">
-        <v>0.763903743315508</v>
+        <v>0.7759369907658881</v>
       </c>
       <c r="Y20">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2228,13 +2228,13 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>36698</v>
+        <v>36646</v>
       </c>
       <c r="C21">
-        <v>7.003435114503817</v>
+        <v>7.06360832690825</v>
       </c>
       <c r="D21">
-        <v>5240</v>
+        <v>5188</v>
       </c>
       <c r="E21">
         <v>5106687588</v>
@@ -2246,10 +2246,10 @@
         <v>195185.1386989646</v>
       </c>
       <c r="H21">
-        <v>974558.7</v>
+        <v>984326.8288357749</v>
       </c>
       <c r="I21">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>562</v>
@@ -2267,7 +2267,7 @@
         <v>526</v>
       </c>
       <c r="O21">
-        <v>1149</v>
+        <v>1097</v>
       </c>
       <c r="P21">
         <v>506</v>
@@ -2285,7 +2285,7 @@
         <v>85549</v>
       </c>
       <c r="U21">
-        <v>0.06125144653941016</v>
+        <v>0.060643607756958</v>
       </c>
       <c r="V21">
         <v>44</v>
@@ -2294,10 +2294,10 @@
         <v>25</v>
       </c>
       <c r="X21">
-        <v>0.7807251908396946</v>
+        <v>0.788550501156515</v>
       </c>
       <c r="Y21">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2305,13 +2305,13 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>19349</v>
+        <v>19308</v>
       </c>
       <c r="C22">
-        <v>6.101860611794387</v>
+        <v>6.168690095846645</v>
       </c>
       <c r="D22">
-        <v>3171</v>
+        <v>3130</v>
       </c>
       <c r="E22">
         <v>2612789766</v>
@@ -2323,10 +2323,10 @@
         <v>182830.6828165375</v>
       </c>
       <c r="H22">
-        <v>823963.9754020814</v>
+        <v>834757.1137380191</v>
       </c>
       <c r="I22">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>378</v>
@@ -2344,7 +2344,7 @@
         <v>276</v>
       </c>
       <c r="O22">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="P22">
         <v>318</v>
@@ -2362,7 +2362,7 @@
         <v>45749</v>
       </c>
       <c r="U22">
-        <v>0.06931299044787864</v>
+        <v>0.06841679599554089</v>
       </c>
       <c r="V22">
         <v>29</v>
@@ -2371,10 +2371,10 @@
         <v>49</v>
       </c>
       <c r="X22">
-        <v>0.7650583412172817</v>
+        <v>0.7750798722044728</v>
       </c>
       <c r="Y22">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2382,13 +2382,13 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>21199</v>
+        <v>21156</v>
       </c>
       <c r="C23">
-        <v>5.692534908700322</v>
+        <v>5.747351263243684</v>
       </c>
       <c r="D23">
-        <v>3724</v>
+        <v>3681</v>
       </c>
       <c r="E23">
         <v>3883265847</v>
@@ -2400,10 +2400,10 @@
         <v>237113.6565012476</v>
       </c>
       <c r="H23">
-        <v>1042767.413265306</v>
+        <v>1054948.613691932</v>
       </c>
       <c r="I23">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <v>402</v>
@@ -2421,7 +2421,7 @@
         <v>341</v>
       </c>
       <c r="O23">
-        <v>956</v>
+        <v>913</v>
       </c>
       <c r="P23">
         <v>394</v>
@@ -2439,7 +2439,7 @@
         <v>72147</v>
       </c>
       <c r="U23">
-        <v>0.05161683784495544</v>
+        <v>0.05102083246704645</v>
       </c>
       <c r="V23">
         <v>62</v>
@@ -2448,7 +2448,7 @@
         <v>17</v>
       </c>
       <c r="X23">
-        <v>0.7432867883995704</v>
+        <v>0.7519695734854659</v>
       </c>
       <c r="Y23">
         <v>69</v>
@@ -2459,13 +2459,13 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>82587</v>
+        <v>82409</v>
       </c>
       <c r="C24">
-        <v>5.598739068537726</v>
+        <v>5.654909764633226</v>
       </c>
       <c r="D24">
-        <v>14751</v>
+        <v>14573</v>
       </c>
       <c r="E24">
         <v>11017307746</v>
@@ -2477,10 +2477,10 @@
         <v>174466.3500279018</v>
       </c>
       <c r="H24">
-        <v>746885.4820690122</v>
+        <v>756008.2169766006</v>
       </c>
       <c r="I24">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="J24">
         <v>1553</v>
@@ -2498,7 +2498,7 @@
         <v>1293</v>
       </c>
       <c r="O24">
-        <v>4776</v>
+        <v>4598</v>
       </c>
       <c r="P24">
         <v>1601</v>
@@ -2516,7 +2516,7 @@
         <v>159071</v>
       </c>
       <c r="U24">
-        <v>0.09273217619804992</v>
+        <v>0.09161317902068887</v>
       </c>
       <c r="V24">
         <v>19</v>
@@ -2525,7 +2525,7 @@
         <v>63</v>
       </c>
       <c r="X24">
-        <v>0.6762253406548708</v>
+        <v>0.6844850065189049</v>
       </c>
       <c r="Y24">
         <v>77</v>
@@ -2536,13 +2536,13 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>20428</v>
+        <v>20389</v>
       </c>
       <c r="C25">
-        <v>6.336228287841191</v>
+        <v>6.401569858712715</v>
       </c>
       <c r="D25">
-        <v>3224</v>
+        <v>3185</v>
       </c>
       <c r="E25">
         <v>3228417477</v>
@@ -2554,10 +2554,10 @@
         <v>298296.6996511259</v>
       </c>
       <c r="H25">
-        <v>1001370.185173697</v>
+        <v>1013631.860910518</v>
       </c>
       <c r="I25">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <v>326</v>
@@ -2575,7 +2575,7 @@
         <v>348</v>
       </c>
       <c r="O25">
-        <v>756</v>
+        <v>717</v>
       </c>
       <c r="P25">
         <v>327</v>
@@ -2593,7 +2593,7 @@
         <v>57879</v>
       </c>
       <c r="U25">
-        <v>0.0557024136560756</v>
+        <v>0.05502859413604243</v>
       </c>
       <c r="V25">
         <v>51</v>
@@ -2602,10 +2602,10 @@
         <v>22</v>
       </c>
       <c r="X25">
-        <v>0.7655086848635235</v>
+        <v>0.7748822605965463</v>
       </c>
       <c r="Y25">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2613,13 +2613,13 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <v>23693</v>
+        <v>23636</v>
       </c>
       <c r="C26">
-        <v>5.980060575466936</v>
+        <v>6.052752880921895</v>
       </c>
       <c r="D26">
-        <v>3962</v>
+        <v>3905</v>
       </c>
       <c r="E26">
         <v>3465941632</v>
@@ -2631,10 +2631,10 @@
         <v>241082.3828735034</v>
       </c>
       <c r="H26">
-        <v>874795.9697122666</v>
+        <v>887565.0786171575</v>
       </c>
       <c r="I26">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>440</v>
@@ -2652,7 +2652,7 @@
         <v>371</v>
       </c>
       <c r="O26">
-        <v>971</v>
+        <v>914</v>
       </c>
       <c r="P26">
         <v>443</v>
@@ -2670,19 +2670,19 @@
         <v>67444</v>
       </c>
       <c r="U26">
-        <v>0.05874503291619714</v>
+        <v>0.05789988731391969</v>
       </c>
       <c r="V26">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W26">
         <v>42</v>
       </c>
       <c r="X26">
-        <v>0.7549217566885411</v>
+        <v>0.7659411011523688</v>
       </c>
       <c r="Y26">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2690,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>16625</v>
+        <v>16599</v>
       </c>
       <c r="C27">
-        <v>6.184895833333333</v>
+        <v>6.235537190082645</v>
       </c>
       <c r="D27">
-        <v>2688</v>
+        <v>2662</v>
       </c>
       <c r="E27">
         <v>2060649246</v>
@@ -2708,10 +2708,10 @@
         <v>168508.9125048393</v>
       </c>
       <c r="H27">
-        <v>766610.5825892857</v>
+        <v>774098.1389932382</v>
       </c>
       <c r="I27">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>301</v>
@@ -2729,7 +2729,7 @@
         <v>265</v>
       </c>
       <c r="O27">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="P27">
         <v>317</v>
@@ -2747,7 +2747,7 @@
         <v>41075</v>
       </c>
       <c r="U27">
-        <v>0.06544126597687158</v>
+        <v>0.06480827754108338</v>
       </c>
       <c r="V27">
         <v>36</v>
@@ -2756,10 +2756,10 @@
         <v>61</v>
       </c>
       <c r="X27">
-        <v>0.7552083333333334</v>
+        <v>0.7625845229151015</v>
       </c>
       <c r="Y27">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2767,13 +2767,13 @@
         <v>51</v>
       </c>
       <c r="B28">
-        <v>26730</v>
+        <v>26671</v>
       </c>
       <c r="C28">
-        <v>5.86827661909989</v>
+        <v>5.932161921708185</v>
       </c>
       <c r="D28">
-        <v>4555</v>
+        <v>4496</v>
       </c>
       <c r="E28">
         <v>4078177732</v>
@@ -2785,10 +2785,10 @@
         <v>227408.3889014723</v>
       </c>
       <c r="H28">
-        <v>895318.931284303</v>
+        <v>907068.0008896798</v>
       </c>
       <c r="I28">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="J28">
         <v>529</v>
@@ -2806,7 +2806,7 @@
         <v>433</v>
       </c>
       <c r="O28">
-        <v>1264</v>
+        <v>1205</v>
       </c>
       <c r="P28">
         <v>477</v>
@@ -2824,7 +2824,7 @@
         <v>44629</v>
       </c>
       <c r="U28">
-        <v>0.1020636805664478</v>
+        <v>0.1007416702144346</v>
       </c>
       <c r="V28">
         <v>14</v>
@@ -2833,7 +2833,7 @@
         <v>39</v>
       </c>
       <c r="X28">
-        <v>0.722502744237102</v>
+        <v>0.7319839857651246</v>
       </c>
       <c r="Y28">
         <v>72</v>
@@ -2844,13 +2844,13 @@
         <v>52</v>
       </c>
       <c r="B29">
-        <v>57743</v>
+        <v>57658</v>
       </c>
       <c r="C29">
-        <v>5.525117213663764</v>
+        <v>5.56222265097434</v>
       </c>
       <c r="D29">
-        <v>10451</v>
+        <v>10366</v>
       </c>
       <c r="E29">
         <v>7487313312</v>
@@ -2862,10 +2862,10 @@
         <v>188658.8114280114</v>
       </c>
       <c r="H29">
-        <v>716420.7551430485</v>
+        <v>722295.3224001543</v>
       </c>
       <c r="I29">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>1171</v>
@@ -2883,7 +2883,7 @@
         <v>1094</v>
       </c>
       <c r="O29">
-        <v>2614</v>
+        <v>2529</v>
       </c>
       <c r="P29">
         <v>1204</v>
@@ -2901,7 +2901,7 @@
         <v>74699</v>
       </c>
       <c r="U29">
-        <v>0.1399081647679353</v>
+        <v>0.1387702646621775</v>
       </c>
       <c r="V29">
         <v>7</v>
@@ -2910,10 +2910,10 @@
         <v>68</v>
       </c>
       <c r="X29">
-        <v>0.7498803942206488</v>
+        <v>0.7560293266448003</v>
       </c>
       <c r="Y29">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2921,13 +2921,13 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>59452</v>
+        <v>59389</v>
       </c>
       <c r="C30">
-        <v>5.824630155775449</v>
+        <v>5.854593848580442</v>
       </c>
       <c r="D30">
-        <v>10207</v>
+        <v>10144</v>
       </c>
       <c r="E30">
         <v>7554104333</v>
@@ -2939,10 +2939,10 @@
         <v>159109.1259007206</v>
       </c>
       <c r="H30">
-        <v>740090.5587342021</v>
+        <v>744686.9413446372</v>
       </c>
       <c r="I30">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>1013</v>
@@ -2960,7 +2960,7 @@
         <v>1117</v>
       </c>
       <c r="O30">
-        <v>2345</v>
+        <v>2282</v>
       </c>
       <c r="P30">
         <v>1191</v>
@@ -2978,19 +2978,19 @@
         <v>94010</v>
       </c>
       <c r="U30">
-        <v>0.1085735560046804</v>
+        <v>0.1079034145303691</v>
       </c>
       <c r="V30">
         <v>13</v>
       </c>
       <c r="W30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X30">
-        <v>0.7702557068678358</v>
+        <v>0.7750394321766562</v>
       </c>
       <c r="Y30">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2998,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B31">
-        <v>68597</v>
+        <v>68497</v>
       </c>
       <c r="C31">
-        <v>6.360407974038016</v>
+        <v>6.410575573233505</v>
       </c>
       <c r="D31">
-        <v>10785</v>
+        <v>10685</v>
       </c>
       <c r="E31">
         <v>6719197012</v>
@@ -3016,10 +3016,10 @@
         <v>127376.4167142042</v>
       </c>
       <c r="H31">
-        <v>623013.1675475197</v>
+        <v>628843.894431446</v>
       </c>
       <c r="I31">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <v>1462</v>
@@ -3037,7 +3037,7 @@
         <v>1020</v>
       </c>
       <c r="O31">
-        <v>2052</v>
+        <v>1952</v>
       </c>
       <c r="P31">
         <v>1096</v>
@@ -3055,7 +3055,7 @@
         <v>72047</v>
       </c>
       <c r="U31">
-        <v>0.1496939497827807</v>
+        <v>0.1483059669382487</v>
       </c>
       <c r="V31">
         <v>4</v>
@@ -3064,10 +3064,10 @@
         <v>77</v>
       </c>
       <c r="X31">
-        <v>0.8097357440890125</v>
+        <v>0.817313991576977</v>
       </c>
       <c r="Y31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3075,13 +3075,13 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>91687</v>
+        <v>91571</v>
       </c>
       <c r="C32">
-        <v>6.145653193913801</v>
+        <v>6.185975815713031</v>
       </c>
       <c r="D32">
-        <v>14919</v>
+        <v>14803</v>
       </c>
       <c r="E32">
         <v>9679882803</v>
@@ -3093,10 +3093,10 @@
         <v>136927.4600833163</v>
       </c>
       <c r="H32">
-        <v>648829.1978684899</v>
+        <v>653913.5852867662</v>
       </c>
       <c r="I32">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>1925</v>
@@ -3114,7 +3114,7 @@
         <v>1529</v>
       </c>
       <c r="O32">
-        <v>2867</v>
+        <v>2751</v>
       </c>
       <c r="P32">
         <v>1544</v>
@@ -3132,7 +3132,7 @@
         <v>106225</v>
       </c>
       <c r="U32">
-        <v>0.1404471640385973</v>
+        <v>0.1393551423864439</v>
       </c>
       <c r="V32">
         <v>6</v>
@@ -3141,7 +3141,7 @@
         <v>74</v>
       </c>
       <c r="X32">
-        <v>0.8078289429586434</v>
+        <v>0.8141592920353983</v>
       </c>
       <c r="Y32">
         <v>9</v>
@@ -3152,13 +3152,13 @@
         <v>56</v>
       </c>
       <c r="B33">
-        <v>103509</v>
+        <v>103397</v>
       </c>
       <c r="C33">
-        <v>6.591250636780438</v>
+        <v>6.631413545407901</v>
       </c>
       <c r="D33">
-        <v>15704</v>
+        <v>15592</v>
       </c>
       <c r="E33">
         <v>11827097484</v>
@@ -3170,10 +3170,10 @@
         <v>147908.7072329908</v>
       </c>
       <c r="H33">
-        <v>753126.431737137</v>
+        <v>758536.2675731144</v>
       </c>
       <c r="I33">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="J33">
         <v>1898</v>
@@ -3191,7 +3191,7 @@
         <v>1597</v>
       </c>
       <c r="O33">
-        <v>2844</v>
+        <v>2732</v>
       </c>
       <c r="P33">
         <v>1458</v>
@@ -3209,7 +3209,7 @@
         <v>102450</v>
       </c>
       <c r="U33">
-        <v>0.1532845290385554</v>
+        <v>0.1521913128355295</v>
       </c>
       <c r="V33">
         <v>3</v>
@@ -3218,7 +3218,7 @@
         <v>62</v>
       </c>
       <c r="X33">
-        <v>0.8188996434029546</v>
+        <v>0.8247819394561313</v>
       </c>
       <c r="Y33">
         <v>4</v>
@@ -3229,13 +3229,13 @@
         <v>57</v>
       </c>
       <c r="B34">
-        <v>52233</v>
+        <v>52159</v>
       </c>
       <c r="C34">
-        <v>6.339725694865882</v>
+        <v>6.388120024494794</v>
       </c>
       <c r="D34">
-        <v>8239</v>
+        <v>8165</v>
       </c>
       <c r="E34">
         <v>6704247841</v>
@@ -3247,10 +3247,10 @@
         <v>194587.1622459098</v>
       </c>
       <c r="H34">
-        <v>813721.0633572035</v>
+        <v>821095.8776484997</v>
       </c>
       <c r="I34">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>841</v>
@@ -3268,7 +3268,7 @@
         <v>857</v>
       </c>
       <c r="O34">
-        <v>1692</v>
+        <v>1618</v>
       </c>
       <c r="P34">
         <v>883</v>
@@ -3286,7 +3286,7 @@
         <v>98407</v>
       </c>
       <c r="U34">
-        <v>0.08372371884113936</v>
+        <v>0.08297173981525705</v>
       </c>
       <c r="V34">
         <v>21</v>
@@ -3295,10 +3295,10 @@
         <v>54</v>
       </c>
       <c r="X34">
-        <v>0.7946352712707853</v>
+        <v>0.801837109614207</v>
       </c>
       <c r="Y34">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3306,13 +3306,13 @@
         <v>58</v>
       </c>
       <c r="B35">
-        <v>52604</v>
+        <v>52529</v>
       </c>
       <c r="C35">
-        <v>6.433953033268102</v>
+        <v>6.484261202320702</v>
       </c>
       <c r="D35">
-        <v>8176</v>
+        <v>8101</v>
       </c>
       <c r="E35">
         <v>5841269541</v>
@@ -3324,10 +3324,10 @@
         <v>138251.6569142285</v>
       </c>
       <c r="H35">
-        <v>714440.9908268101</v>
+        <v>721055.3685964695</v>
       </c>
       <c r="I35">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="J35">
         <v>1066</v>
@@ -3345,7 +3345,7 @@
         <v>803</v>
       </c>
       <c r="O35">
-        <v>1529</v>
+        <v>1454</v>
       </c>
       <c r="P35">
         <v>818</v>
@@ -3363,7 +3363,7 @@
         <v>71656</v>
       </c>
       <c r="U35">
-        <v>0.1141007033605002</v>
+        <v>0.1130540359495367</v>
       </c>
       <c r="V35">
         <v>11</v>
@@ -3372,7 +3372,7 @@
         <v>69</v>
       </c>
       <c r="X35">
-        <v>0.8129892367906066</v>
+        <v>0.8205159856807801</v>
       </c>
       <c r="Y35">
         <v>5</v>
@@ -3383,13 +3383,13 @@
         <v>59</v>
       </c>
       <c r="B36">
-        <v>109593</v>
+        <v>109495</v>
       </c>
       <c r="C36">
-        <v>6.745429925524713</v>
+        <v>6.780295993559973</v>
       </c>
       <c r="D36">
-        <v>16247</v>
+        <v>16149</v>
       </c>
       <c r="E36">
         <v>11011053620</v>
@@ -3401,10 +3401,10 @@
         <v>125049.2080305688</v>
       </c>
       <c r="H36">
-        <v>677728.4187850065</v>
+        <v>681841.2050281751</v>
       </c>
       <c r="I36">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="J36">
         <v>2342</v>
@@ -3422,7 +3422,7 @@
         <v>1505</v>
       </c>
       <c r="O36">
-        <v>2701</v>
+        <v>2603</v>
       </c>
       <c r="P36">
         <v>1528</v>
@@ -3440,7 +3440,7 @@
         <v>90086</v>
       </c>
       <c r="U36">
-        <v>0.18034988788491</v>
+        <v>0.1792620384965477</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -3449,7 +3449,7 @@
         <v>72</v>
       </c>
       <c r="X36">
-        <v>0.8337539238013172</v>
+        <v>0.8388135488265527</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -3460,13 +3460,13 @@
         <v>60</v>
       </c>
       <c r="B37">
-        <v>100478</v>
+        <v>100355</v>
       </c>
       <c r="C37">
-        <v>6.48579912212755</v>
+        <v>6.529702648187911</v>
       </c>
       <c r="D37">
-        <v>15492</v>
+        <v>15369</v>
       </c>
       <c r="E37">
         <v>9990673842</v>
@@ -3478,10 +3478,10 @@
         <v>132739.7329646455</v>
       </c>
       <c r="H37">
-        <v>644892.4504260264</v>
+        <v>650053.6041382003</v>
       </c>
       <c r="I37">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="J37">
         <v>2059</v>
@@ -3499,7 +3499,7 @@
         <v>1500</v>
       </c>
       <c r="O37">
-        <v>2943</v>
+        <v>2820</v>
       </c>
       <c r="P37">
         <v>1554</v>
@@ -3517,7 +3517,7 @@
         <v>104907</v>
       </c>
       <c r="U37">
-        <v>0.1476736538076582</v>
+        <v>0.1465011867654208</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3526,10 +3526,10 @@
         <v>75</v>
       </c>
       <c r="X37">
-        <v>0.8100309837335399</v>
+        <v>0.8165137614678899</v>
       </c>
       <c r="Y37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3537,13 +3537,13 @@
         <v>61</v>
       </c>
       <c r="B38">
-        <v>129607</v>
+        <v>129518</v>
       </c>
       <c r="C38">
-        <v>8.30069168694761</v>
+        <v>8.342544283413849</v>
       </c>
       <c r="D38">
-        <v>15614</v>
+        <v>15525</v>
       </c>
       <c r="E38">
         <v>10894543566</v>
@@ -3555,10 +3555,10 @@
         <v>115865.3403881219</v>
       </c>
       <c r="H38">
-        <v>697741.998591008</v>
+        <v>701741.9366183574</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <v>2113</v>
@@ -3576,7 +3576,7 @@
         <v>1548</v>
       </c>
       <c r="O38">
-        <v>2619</v>
+        <v>2530</v>
       </c>
       <c r="P38">
         <v>1304</v>
@@ -3594,7 +3594,7 @@
         <v>98014</v>
       </c>
       <c r="U38">
-        <v>0.1593037729303977</v>
+        <v>0.1583957393841696</v>
       </c>
       <c r="V38">
         <v>2</v>
@@ -3603,7 +3603,7 @@
         <v>71</v>
       </c>
       <c r="X38">
-        <v>0.8322659152043038</v>
+        <v>0.837037037037037</v>
       </c>
       <c r="Y38">
         <v>3</v>
@@ -3614,13 +3614,13 @@
         <v>62</v>
       </c>
       <c r="B39">
-        <v>60519</v>
+        <v>60427</v>
       </c>
       <c r="C39">
-        <v>6.132853668423186</v>
+        <v>6.181157937806874</v>
       </c>
       <c r="D39">
-        <v>9868</v>
+        <v>9776</v>
       </c>
       <c r="E39">
         <v>8197558352</v>
@@ -3632,10 +3632,10 @@
         <v>225795.9743085051</v>
       </c>
       <c r="H39">
-        <v>830721.3571139035</v>
+        <v>838539.1112929623</v>
       </c>
       <c r="I39">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>1072</v>
@@ -3653,7 +3653,7 @@
         <v>955</v>
       </c>
       <c r="O39">
-        <v>2047</v>
+        <v>1955</v>
       </c>
       <c r="P39">
         <v>1043</v>
@@ -3671,19 +3671,19 @@
         <v>85564</v>
       </c>
       <c r="U39">
-        <v>0.1153288766303586</v>
+        <v>0.1142536580805011</v>
       </c>
       <c r="V39">
         <v>10</v>
       </c>
       <c r="W39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X39">
-        <v>0.7925618159708148</v>
+        <v>0.8000204582651391</v>
       </c>
       <c r="Y39">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3691,13 +3691,13 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <v>45475</v>
+        <v>45418</v>
       </c>
       <c r="C40">
-        <v>6.48531089560753</v>
+        <v>6.530265995686556</v>
       </c>
       <c r="D40">
-        <v>7012</v>
+        <v>6955</v>
       </c>
       <c r="E40">
         <v>5733622055</v>
@@ -3709,10 +3709,10 @@
         <v>181761.4092765461</v>
       </c>
       <c r="H40">
-        <v>817687.1156588705</v>
+        <v>824388.5053918045</v>
       </c>
       <c r="I40">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>794</v>
@@ -3730,7 +3730,7 @@
         <v>676</v>
       </c>
       <c r="O40">
-        <v>1411</v>
+        <v>1354</v>
       </c>
       <c r="P40">
         <v>671</v>
@@ -3748,7 +3748,7 @@
         <v>75496</v>
       </c>
       <c r="U40">
-        <v>0.09287909293207587</v>
+        <v>0.09212408604429374</v>
       </c>
       <c r="V40">
         <v>18</v>
@@ -3757,7 +3757,7 @@
         <v>51</v>
       </c>
       <c r="X40">
-        <v>0.7987735310895607</v>
+        <v>0.8053199137311287</v>
       </c>
       <c r="Y40">
         <v>15</v>
@@ -3768,13 +3768,13 @@
         <v>64</v>
       </c>
       <c r="B41">
-        <v>86942</v>
+        <v>86829</v>
       </c>
       <c r="C41">
-        <v>6.21458184417441</v>
+        <v>6.257044029689414</v>
       </c>
       <c r="D41">
-        <v>13990</v>
+        <v>13877</v>
       </c>
       <c r="E41">
         <v>15014392991</v>
@@ -3786,10 +3786,10 @@
         <v>308094.9381292865</v>
       </c>
       <c r="H41">
-        <v>1073223.230235883</v>
+        <v>1081962.455213663</v>
       </c>
       <c r="I41">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>1462</v>
@@ -3807,7 +3807,7 @@
         <v>1377</v>
       </c>
       <c r="O41">
-        <v>2957</v>
+        <v>2844</v>
       </c>
       <c r="P41">
         <v>1450</v>
@@ -3825,7 +3825,7 @@
         <v>144999</v>
       </c>
       <c r="U41">
-        <v>0.09648342402361396</v>
+        <v>0.09570410830419521</v>
       </c>
       <c r="V41">
         <v>17</v>
@@ -3834,7 +3834,7 @@
         <v>14</v>
       </c>
       <c r="X41">
-        <v>0.7886347390993567</v>
+        <v>0.7950565684225697</v>
       </c>
       <c r="Y41">
         <v>20</v>
@@ -3845,13 +3845,13 @@
         <v>65</v>
       </c>
       <c r="B42">
-        <v>17028</v>
+        <v>16996</v>
       </c>
       <c r="C42">
-        <v>5.606848864010536</v>
+        <v>5.655906821963394</v>
       </c>
       <c r="D42">
-        <v>3037</v>
+        <v>3005</v>
       </c>
       <c r="E42">
         <v>2812150828</v>
@@ -3863,10 +3863,10 @@
         <v>248702.598108747</v>
       </c>
       <c r="H42">
-        <v>925963.394138953</v>
+        <v>935823.902828619</v>
       </c>
       <c r="I42">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>264</v>
@@ -3884,7 +3884,7 @@
         <v>328</v>
       </c>
       <c r="O42">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="P42">
         <v>359</v>
@@ -3902,7 +3902,7 @@
         <v>60305</v>
       </c>
       <c r="U42">
-        <v>0.05036066661139209</v>
+        <v>0.04983003067738993</v>
       </c>
       <c r="V42">
         <v>63</v>
@@ -3911,10 +3911,10 @@
         <v>35</v>
       </c>
       <c r="X42">
-        <v>0.7678630227197892</v>
+        <v>0.7760399334442596</v>
       </c>
       <c r="Y42">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3922,13 +3922,13 @@
         <v>66</v>
       </c>
       <c r="B43">
-        <v>46971</v>
+        <v>46902</v>
       </c>
       <c r="C43">
-        <v>6.237020316027088</v>
+        <v>6.285446261056017</v>
       </c>
       <c r="D43">
-        <v>7531</v>
+        <v>7462</v>
       </c>
       <c r="E43">
         <v>7384223507</v>
@@ -3940,10 +3940,10 @@
         <v>222017.7049002307</v>
       </c>
       <c r="H43">
-        <v>980510.3581197716</v>
+        <v>989576.991021174</v>
       </c>
       <c r="I43">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="J43">
         <v>865</v>
@@ -3961,7 +3961,7 @@
         <v>782</v>
       </c>
       <c r="O43">
-        <v>1637</v>
+        <v>1568</v>
       </c>
       <c r="P43">
         <v>794</v>
@@ -3979,7 +3979,7 @@
         <v>136522</v>
       </c>
       <c r="U43">
-        <v>0.05516327038865531</v>
+        <v>0.05465785734167387</v>
       </c>
       <c r="V43">
         <v>54</v>
@@ -3988,7 +3988,7 @@
         <v>23</v>
       </c>
       <c r="X43">
-        <v>0.7826317886070907</v>
+        <v>0.7898686679174484</v>
       </c>
       <c r="Y43">
         <v>26</v>
@@ -3999,13 +3999,13 @@
         <v>67</v>
       </c>
       <c r="B44">
-        <v>21170</v>
+        <v>21127</v>
       </c>
       <c r="C44">
-        <v>5.777838427947598</v>
+        <v>5.834576083954708</v>
       </c>
       <c r="D44">
-        <v>3664</v>
+        <v>3621</v>
       </c>
       <c r="E44">
         <v>2826080772</v>
@@ -4017,10 +4017,10 @@
         <v>178255.2817493692</v>
       </c>
       <c r="H44">
-        <v>771310.2543668122</v>
+        <v>780469.6967688483</v>
       </c>
       <c r="I44">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <v>381</v>
@@ -4038,7 +4038,7 @@
         <v>373</v>
       </c>
       <c r="O44">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="P44">
         <v>418</v>
@@ -4056,19 +4056,19 @@
         <v>66252</v>
       </c>
       <c r="U44">
-        <v>0.05530399082291855</v>
+        <v>0.05465495381271509</v>
       </c>
       <c r="V44">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W44">
         <v>60</v>
       </c>
       <c r="X44">
-        <v>0.7704694323144105</v>
+        <v>0.7796188898094449</v>
       </c>
       <c r="Y44">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4076,13 +4076,13 @@
         <v>68</v>
       </c>
       <c r="B45">
-        <v>36592</v>
+        <v>36547</v>
       </c>
       <c r="C45">
-        <v>6.166498146275699</v>
+        <v>6.205977245712345</v>
       </c>
       <c r="D45">
-        <v>5934</v>
+        <v>5889</v>
       </c>
       <c r="E45">
         <v>5239607109</v>
@@ -4094,10 +4094,10 @@
         <v>204101.6200895934</v>
       </c>
       <c r="H45">
-        <v>882980.6385237614</v>
+        <v>889727.8160978095</v>
       </c>
       <c r="I45">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>737</v>
@@ -4115,7 +4115,7 @@
         <v>561</v>
       </c>
       <c r="O45">
-        <v>1160</v>
+        <v>1115</v>
       </c>
       <c r="P45">
         <v>629</v>
@@ -4133,16 +4133,16 @@
         <v>91313</v>
       </c>
       <c r="U45">
-        <v>0.06498527044341988</v>
+        <v>0.06449246000021902</v>
       </c>
       <c r="V45">
         <v>37</v>
       </c>
       <c r="W45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X45">
-        <v>0.8045163464779238</v>
+        <v>0.8106639497367975</v>
       </c>
       <c r="Y45">
         <v>12</v>
@@ -4153,13 +4153,13 @@
         <v>69</v>
       </c>
       <c r="B46">
-        <v>18880</v>
+        <v>18841</v>
       </c>
       <c r="C46">
-        <v>5.425287356321839</v>
+        <v>5.475443185120604</v>
       </c>
       <c r="D46">
-        <v>3480</v>
+        <v>3441</v>
       </c>
       <c r="E46">
         <v>2724516891</v>
@@ -4171,10 +4171,10 @@
         <v>218247.3571428571</v>
       </c>
       <c r="H46">
-        <v>782907.1525862069</v>
+        <v>791780.5553618134</v>
       </c>
       <c r="I46">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>401</v>
@@ -4192,7 +4192,7 @@
         <v>337</v>
       </c>
       <c r="O46">
-        <v>886</v>
+        <v>847</v>
       </c>
       <c r="P46">
         <v>396</v>
@@ -4210,16 +4210,16 @@
         <v>65889</v>
       </c>
       <c r="U46">
-        <v>0.05281609980421618</v>
+        <v>0.05222419523744479</v>
       </c>
       <c r="V46">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W46">
         <v>58</v>
       </c>
       <c r="X46">
-        <v>0.7454022988505747</v>
+        <v>0.7538506248183667</v>
       </c>
       <c r="Y46">
         <v>68</v>
@@ -4230,13 +4230,13 @@
         <v>70</v>
       </c>
       <c r="B47">
-        <v>44288</v>
+        <v>44234</v>
       </c>
       <c r="C47">
-        <v>6.004338394793926</v>
+        <v>6.041245561322043</v>
       </c>
       <c r="D47">
-        <v>7376</v>
+        <v>7322</v>
       </c>
       <c r="E47">
         <v>7177438553</v>
@@ -4248,10 +4248,10 @@
         <v>248442.2462283737</v>
       </c>
       <c r="H47">
-        <v>973080.0641268981</v>
+        <v>980256.562824365</v>
       </c>
       <c r="I47">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="J47">
         <v>797</v>
@@ -4269,7 +4269,7 @@
         <v>732</v>
       </c>
       <c r="O47">
-        <v>1521</v>
+        <v>1467</v>
       </c>
       <c r="P47">
         <v>821</v>
@@ -4287,19 +4287,19 @@
         <v>97490</v>
       </c>
       <c r="U47">
-        <v>0.07565904195302083</v>
+        <v>0.07510513898861422</v>
       </c>
       <c r="V47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W47">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X47">
-        <v>0.7937906724511931</v>
+        <v>0.7996449057634526</v>
       </c>
       <c r="Y47">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4307,13 +4307,13 @@
         <v>71</v>
       </c>
       <c r="B48">
-        <v>24873</v>
+        <v>24804</v>
       </c>
       <c r="C48">
-        <v>5.81688493919551</v>
+        <v>5.895887806037557</v>
       </c>
       <c r="D48">
-        <v>4276</v>
+        <v>4207</v>
       </c>
       <c r="E48">
         <v>3771341266</v>
@@ -4325,10 +4325,10 @@
         <v>247883.1429604629</v>
       </c>
       <c r="H48">
-        <v>881978.7806361085</v>
+        <v>896444.3227953411</v>
       </c>
       <c r="I48">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <v>486</v>
@@ -4346,7 +4346,7 @@
         <v>416</v>
       </c>
       <c r="O48">
-        <v>972</v>
+        <v>903</v>
       </c>
       <c r="P48">
         <v>471</v>
@@ -4364,19 +4364,19 @@
         <v>87331</v>
       </c>
       <c r="U48">
-        <v>0.04896314023657121</v>
+        <v>0.04817304279121961</v>
       </c>
       <c r="V48">
         <v>66</v>
       </c>
       <c r="W48">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X48">
-        <v>0.7726847521047708</v>
+        <v>0.7853577371048253</v>
       </c>
       <c r="Y48">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4384,13 +4384,13 @@
         <v>72</v>
       </c>
       <c r="B49">
-        <v>56767</v>
+        <v>56616</v>
       </c>
       <c r="C49">
-        <v>5.902776333575959</v>
+        <v>5.980984576378618</v>
       </c>
       <c r="D49">
-        <v>9617</v>
+        <v>9466</v>
       </c>
       <c r="E49">
         <v>10344975081</v>
@@ -4402,10 +4402,10 @@
         <v>306064.1477737148</v>
       </c>
       <c r="H49">
-        <v>1075696.691379848</v>
+        <v>1092856.01954363</v>
       </c>
       <c r="I49">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="J49">
         <v>1068</v>
@@ -4423,7 +4423,7 @@
         <v>924</v>
       </c>
       <c r="O49">
-        <v>2536</v>
+        <v>2385</v>
       </c>
       <c r="P49">
         <v>1124</v>
@@ -4441,16 +4441,16 @@
         <v>143995</v>
       </c>
       <c r="U49">
-        <v>0.06678704121670892</v>
+        <v>0.06573839369422549</v>
       </c>
       <c r="V49">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W49">
         <v>13</v>
       </c>
       <c r="X49">
-        <v>0.7363003015493397</v>
+        <v>0.7480456370166914</v>
       </c>
       <c r="Y49">
         <v>71</v>
@@ -4461,13 +4461,13 @@
         <v>73</v>
       </c>
       <c r="B50">
-        <v>27715</v>
+        <v>27662</v>
       </c>
       <c r="C50">
-        <v>5.713254998969285</v>
+        <v>5.765318882867861</v>
       </c>
       <c r="D50">
-        <v>4851</v>
+        <v>4798</v>
       </c>
       <c r="E50">
         <v>3834749639</v>
@@ -4479,10 +4479,10 @@
         <v>190738.3464949324</v>
       </c>
       <c r="H50">
-        <v>790507.0375180375</v>
+        <v>799239.1911213006</v>
       </c>
       <c r="I50">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="J50">
         <v>551</v>
@@ -4500,7 +4500,7 @@
         <v>467</v>
       </c>
       <c r="O50">
-        <v>1073</v>
+        <v>1020</v>
       </c>
       <c r="P50">
         <v>576</v>
@@ -4518,19 +4518,19 @@
         <v>86547</v>
       </c>
       <c r="U50">
-        <v>0.05605046968699089</v>
+        <v>0.05543808566443666</v>
       </c>
       <c r="V50">
         <v>50</v>
       </c>
       <c r="W50">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X50">
-        <v>0.7788084930942074</v>
+        <v>0.7874114214255939</v>
       </c>
       <c r="Y50">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4538,13 +4538,13 @@
         <v>74</v>
       </c>
       <c r="B51">
-        <v>34510</v>
+        <v>34440</v>
       </c>
       <c r="C51">
-        <v>5.722102470568728</v>
+        <v>5.777554101660795</v>
       </c>
       <c r="D51">
-        <v>6031</v>
+        <v>5961</v>
       </c>
       <c r="E51">
         <v>5224565381</v>
@@ -4556,10 +4556,10 @@
         <v>250941.6774138519</v>
       </c>
       <c r="H51">
-        <v>866285.09053225</v>
+        <v>876457.8730078846</v>
       </c>
       <c r="I51">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>688</v>
@@ -4577,7 +4577,7 @@
         <v>581</v>
       </c>
       <c r="O51">
-        <v>1304</v>
+        <v>1234</v>
       </c>
       <c r="P51">
         <v>661</v>
@@ -4595,7 +4595,7 @@
         <v>113760</v>
       </c>
       <c r="U51">
-        <v>0.05301511954992968</v>
+        <v>0.05239978902953586</v>
       </c>
       <c r="V51">
         <v>57</v>
@@ -4604,7 +4604,7 @@
         <v>44</v>
       </c>
       <c r="X51">
-        <v>0.7837837837837838</v>
+        <v>0.7929877537325952</v>
       </c>
       <c r="Y51">
         <v>25</v>
@@ -4615,13 +4615,13 @@
         <v>75</v>
       </c>
       <c r="B52">
-        <v>19679</v>
+        <v>19634</v>
       </c>
       <c r="C52">
-        <v>5.884868421052632</v>
+        <v>5.951500454683237</v>
       </c>
       <c r="D52">
-        <v>3344</v>
+        <v>3299</v>
       </c>
       <c r="E52">
         <v>3510451353</v>
@@ -4633,10 +4633,10 @@
         <v>392021.2316733684</v>
       </c>
       <c r="H52">
-        <v>1049776.122308612</v>
+        <v>1064095.590481964</v>
       </c>
       <c r="I52">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>352</v>
@@ -4654,7 +4654,7 @@
         <v>345</v>
       </c>
       <c r="O52">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="P52">
         <v>379</v>
@@ -4672,7 +4672,7 @@
         <v>78830</v>
       </c>
       <c r="U52">
-        <v>0.0424203983255106</v>
+        <v>0.04184954966383356</v>
       </c>
       <c r="V52">
         <v>73</v>
@@ -4681,10 +4681,10 @@
         <v>16</v>
       </c>
       <c r="X52">
-        <v>0.7508971291866029</v>
+        <v>0.7611397393149439</v>
       </c>
       <c r="Y52">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4692,13 +4692,13 @@
         <v>76</v>
       </c>
       <c r="B53">
-        <v>36003</v>
+        <v>35938</v>
       </c>
       <c r="C53">
-        <v>6.959791223661318</v>
+        <v>7.035630383711824</v>
       </c>
       <c r="D53">
-        <v>5173</v>
+        <v>5108</v>
       </c>
       <c r="E53">
         <v>7381929301</v>
@@ -4710,10 +4710,10 @@
         <v>745119.185898709</v>
       </c>
       <c r="H53">
-        <v>1427011.270249372</v>
+        <v>1445170.18422083</v>
       </c>
       <c r="I53">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>610</v>
@@ -4731,7 +4731,7 @@
         <v>454</v>
       </c>
       <c r="O53">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="P53">
         <v>513</v>
@@ -4749,7 +4749,7 @@
         <v>94004</v>
       </c>
       <c r="U53">
-        <v>0.05502957320965066</v>
+        <v>0.05433811327177567</v>
       </c>
       <c r="V53">
         <v>56</v>
@@ -4758,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="X53">
-        <v>0.8049487724724531</v>
+        <v>0.8151918559122945</v>
       </c>
       <c r="Y53">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4769,13 +4769,13 @@
         <v>77</v>
       </c>
       <c r="B54">
-        <v>17042</v>
+        <v>17006</v>
       </c>
       <c r="C54">
-        <v>6.385162982390408</v>
+        <v>6.45879225218382</v>
       </c>
       <c r="D54">
-        <v>2669</v>
+        <v>2633</v>
       </c>
       <c r="E54">
         <v>2441383294</v>
@@ -4787,10 +4787,10 @@
         <v>253691.4080215966</v>
       </c>
       <c r="H54">
-        <v>914718.356687898</v>
+        <v>927224.9502468667</v>
       </c>
       <c r="I54">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J54">
         <v>280</v>
@@ -4808,7 +4808,7 @@
         <v>278</v>
       </c>
       <c r="O54">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="P54">
         <v>302</v>
@@ -4826,7 +4826,7 @@
         <v>60951</v>
       </c>
       <c r="U54">
-        <v>0.04378927335072435</v>
+        <v>0.04319863496907352</v>
       </c>
       <c r="V54">
         <v>69</v>
@@ -4835,10 +4835,10 @@
         <v>36</v>
       </c>
       <c r="X54">
-        <v>0.7519670288497564</v>
+        <v>0.7622483858716294</v>
       </c>
       <c r="Y54">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4846,13 +4846,13 @@
         <v>78</v>
       </c>
       <c r="B55">
-        <v>27383</v>
+        <v>27326</v>
       </c>
       <c r="C55">
-        <v>6.512009512485137</v>
+        <v>6.587753134040502</v>
       </c>
       <c r="D55">
-        <v>4205</v>
+        <v>4148</v>
       </c>
       <c r="E55">
         <v>4374624195</v>
@@ -4864,10 +4864,10 @@
         <v>258408.6960664549</v>
       </c>
       <c r="H55">
-        <v>1040338.690844233</v>
+        <v>1054634.569672131</v>
       </c>
       <c r="I55">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>425</v>
@@ -4885,7 +4885,7 @@
         <v>429</v>
       </c>
       <c r="O55">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="P55">
         <v>464</v>
@@ -4903,7 +4903,7 @@
         <v>92570</v>
       </c>
       <c r="U55">
-        <v>0.04542508372042778</v>
+        <v>0.04480933347736848</v>
       </c>
       <c r="V55">
         <v>67</v>
@@ -4912,10 +4912,10 @@
         <v>18</v>
       </c>
       <c r="X55">
-        <v>0.7928656361474435</v>
+        <v>0.8037608486017358</v>
       </c>
       <c r="Y55">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4923,13 +4923,13 @@
         <v>79</v>
       </c>
       <c r="B56">
-        <v>21034</v>
+        <v>21009</v>
       </c>
       <c r="C56">
-        <v>6.103888566453859</v>
+        <v>6.141186787489039</v>
       </c>
       <c r="D56">
-        <v>3446</v>
+        <v>3421</v>
       </c>
       <c r="E56">
         <v>4276396073</v>
@@ -4941,10 +4941,10 @@
         <v>276093.591299201</v>
       </c>
       <c r="H56">
-        <v>1240973.903946605</v>
+        <v>1250042.698918445</v>
       </c>
       <c r="I56">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>309</v>
@@ -4962,7 +4962,7 @@
         <v>367</v>
       </c>
       <c r="O56">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="P56">
         <v>377</v>
@@ -4980,7 +4980,7 @@
         <v>98106</v>
       </c>
       <c r="U56">
-        <v>0.0351252726642611</v>
+        <v>0.03487044625201313</v>
       </c>
       <c r="V56">
         <v>77</v>
@@ -4989,10 +4989,10 @@
         <v>7</v>
       </c>
       <c r="X56">
-        <v>0.7809053975623912</v>
+        <v>0.7866121017246419</v>
       </c>
       <c r="Y56">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5000,13 +5000,13 @@
         <v>80</v>
       </c>
       <c r="B57">
-        <v>23017</v>
+        <v>22976</v>
       </c>
       <c r="C57">
-        <v>6.111789697291556</v>
+        <v>6.168053691275168</v>
       </c>
       <c r="D57">
-        <v>3766</v>
+        <v>3725</v>
       </c>
       <c r="E57">
         <v>4007659895</v>
@@ -5018,10 +5018,10 @@
         <v>240342.6621253406</v>
       </c>
       <c r="H57">
-        <v>1064168.851566649</v>
+        <v>1075881.851006711</v>
       </c>
       <c r="I57">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J57">
         <v>301</v>
@@ -5039,7 +5039,7 @@
         <v>386</v>
       </c>
       <c r="O57">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="P57">
         <v>425</v>
@@ -5057,7 +5057,7 @@
         <v>89822</v>
       </c>
       <c r="U57">
-        <v>0.04192736746008773</v>
+        <v>0.0414709091313932</v>
       </c>
       <c r="V57">
         <v>74</v>
@@ -5066,7 +5066,7 @@
         <v>15</v>
       </c>
       <c r="X57">
-        <v>0.7591609134360063</v>
+        <v>0.76751677852349</v>
       </c>
       <c r="Y57">
         <v>59</v>
@@ -5077,13 +5077,13 @@
         <v>81</v>
       </c>
       <c r="B58">
-        <v>188412</v>
+        <v>188123</v>
       </c>
       <c r="C58">
-        <v>7.484685973066381</v>
+        <v>7.559998392541392</v>
       </c>
       <c r="D58">
-        <v>25173</v>
+        <v>24884</v>
       </c>
       <c r="E58">
         <v>26149985089</v>
@@ -5095,10 +5095,10 @@
         <v>224532.9490978855</v>
       </c>
       <c r="H58">
-        <v>1038810.832598419</v>
+        <v>1050875.465720945</v>
       </c>
       <c r="I58">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="J58">
         <v>2463</v>
@@ -5116,7 +5116,7 @@
         <v>3009</v>
       </c>
       <c r="O58">
-        <v>5562</v>
+        <v>5273</v>
       </c>
       <c r="P58">
         <v>2316</v>
@@ -5134,7 +5134,7 @@
         <v>319229</v>
       </c>
       <c r="U58">
-        <v>0.07885561775402611</v>
+        <v>0.07795031153184705</v>
       </c>
       <c r="V58">
         <v>22</v>
@@ -5143,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="X58">
-        <v>0.7790489810511262</v>
+        <v>0.788096769008198</v>
       </c>
       <c r="Y58">
         <v>30</v>
@@ -5154,13 +5154,13 @@
         <v>82</v>
       </c>
       <c r="B59">
-        <v>42887</v>
+        <v>42789</v>
       </c>
       <c r="C59">
-        <v>5.961495690853489</v>
+        <v>6.030016910935738</v>
       </c>
       <c r="D59">
-        <v>7194</v>
+        <v>7096</v>
       </c>
       <c r="E59">
         <v>7881097486</v>
@@ -5172,10 +5172,10 @@
         <v>269359.1158075111</v>
       </c>
       <c r="H59">
-        <v>1095509.797887128</v>
+        <v>1110639.442784667</v>
       </c>
       <c r="I59">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="J59">
         <v>578</v>
@@ -5193,7 +5193,7 @@
         <v>723</v>
       </c>
       <c r="O59">
-        <v>1775</v>
+        <v>1677</v>
       </c>
       <c r="P59">
         <v>838</v>
@@ -5211,19 +5211,19 @@
         <v>183814</v>
       </c>
       <c r="U59">
-        <v>0.03913738888223966</v>
+        <v>0.03860424124386608</v>
       </c>
       <c r="V59">
         <v>76</v>
       </c>
       <c r="W59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X59">
-        <v>0.7532666110647762</v>
+        <v>0.7636696730552424</v>
       </c>
       <c r="Y59">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5231,13 +5231,13 @@
         <v>83</v>
       </c>
       <c r="B60">
-        <v>32747</v>
+        <v>32657</v>
       </c>
       <c r="C60">
-        <v>5.343831592689295</v>
+        <v>5.408578999668764</v>
       </c>
       <c r="D60">
-        <v>6128</v>
+        <v>6038</v>
       </c>
       <c r="E60">
         <v>6634857212</v>
@@ -5249,10 +5249,10 @@
         <v>301526.9233226837</v>
       </c>
       <c r="H60">
-        <v>1082711.686031332</v>
+        <v>1098850.151043392</v>
       </c>
       <c r="I60">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="J60">
         <v>549</v>
@@ -5270,7 +5270,7 @@
         <v>593</v>
       </c>
       <c r="O60">
-        <v>1596</v>
+        <v>1506</v>
       </c>
       <c r="P60">
         <v>820</v>
@@ -5288,7 +5288,7 @@
         <v>96915</v>
       </c>
       <c r="U60">
-        <v>0.06323066604756745</v>
+        <v>0.0623020172315947</v>
       </c>
       <c r="V60">
         <v>42</v>
@@ -5297,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="X60">
-        <v>0.7395561357702349</v>
+        <v>0.7505796621397813</v>
       </c>
       <c r="Y60">
         <v>70</v>
@@ -5308,13 +5308,13 @@
         <v>84</v>
       </c>
       <c r="B61">
-        <v>38466</v>
+        <v>38396</v>
       </c>
       <c r="C61">
-        <v>5.646799765120376</v>
+        <v>5.69504598042124</v>
       </c>
       <c r="D61">
-        <v>6812</v>
+        <v>6742</v>
       </c>
       <c r="E61">
         <v>6899457849</v>
@@ -5326,10 +5326,10 @@
         <v>258737.7300991289</v>
       </c>
       <c r="H61">
-        <v>1012838.791691133</v>
+        <v>1023354.76846633</v>
       </c>
       <c r="I61">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>519</v>
@@ -5347,7 +5347,7 @@
         <v>709</v>
       </c>
       <c r="O61">
-        <v>1598</v>
+        <v>1528</v>
       </c>
       <c r="P61">
         <v>787</v>
@@ -5365,7 +5365,7 @@
         <v>129121</v>
       </c>
       <c r="U61">
-        <v>0.05275671656818023</v>
+        <v>0.05221458941612906</v>
       </c>
       <c r="V61">
         <v>60</v>
@@ -5374,10 +5374,10 @@
         <v>20</v>
       </c>
       <c r="X61">
-        <v>0.7654139753376394</v>
+        <v>0.7733610204687037</v>
       </c>
       <c r="Y61">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5385,13 +5385,13 @@
         <v>85</v>
       </c>
       <c r="B62">
-        <v>22577</v>
+        <v>22532</v>
       </c>
       <c r="C62">
-        <v>5.8978578892372</v>
+        <v>5.956119481892678</v>
       </c>
       <c r="D62">
-        <v>3828</v>
+        <v>3783</v>
       </c>
       <c r="E62">
         <v>3868897279</v>
@@ -5403,10 +5403,10 @@
         <v>226393.5599892876</v>
       </c>
       <c r="H62">
-        <v>1010683.71969697</v>
+        <v>1022706.127147766</v>
       </c>
       <c r="I62">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J62">
         <v>353</v>
@@ -5424,7 +5424,7 @@
         <v>412</v>
       </c>
       <c r="O62">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="P62">
         <v>455</v>
@@ -5442,7 +5442,7 @@
         <v>76380</v>
       </c>
       <c r="U62">
-        <v>0.05011783189316575</v>
+        <v>0.049528672427337</v>
       </c>
       <c r="V62">
         <v>64</v>
@@ -5451,10 +5451,10 @@
         <v>21</v>
       </c>
       <c r="X62">
-        <v>0.7784743991640544</v>
+        <v>0.7877346021675918</v>
       </c>
       <c r="Y62">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5462,13 +5462,13 @@
         <v>86</v>
       </c>
       <c r="B63">
-        <v>43743</v>
+        <v>43677</v>
       </c>
       <c r="C63">
-        <v>6.521991948710303</v>
+        <v>6.576870953169704</v>
       </c>
       <c r="D63">
-        <v>6707</v>
+        <v>6641</v>
       </c>
       <c r="E63">
         <v>5848533727</v>
@@ -5480,10 +5480,10 @@
         <v>207569.514351145</v>
       </c>
       <c r="H63">
-        <v>872004.4322349784</v>
+        <v>880670.6410179189</v>
       </c>
       <c r="I63">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>641</v>
@@ -5501,7 +5501,7 @@
         <v>795</v>
       </c>
       <c r="O63">
-        <v>1430</v>
+        <v>1364</v>
       </c>
       <c r="P63">
         <v>765</v>
@@ -5519,7 +5519,7 @@
         <v>95217</v>
       </c>
       <c r="U63">
-        <v>0.07043910226115084</v>
+        <v>0.06974594872764317</v>
       </c>
       <c r="V63">
         <v>28</v>
@@ -5528,7 +5528,7 @@
         <v>43</v>
       </c>
       <c r="X63">
-        <v>0.7867899209780826</v>
+        <v>0.7946092455955428</v>
       </c>
       <c r="Y63">
         <v>21</v>
@@ -5539,13 +5539,13 @@
         <v>87</v>
       </c>
       <c r="B64">
-        <v>17281</v>
+        <v>17249</v>
       </c>
       <c r="C64">
-        <v>5.638172920065253</v>
+        <v>5.687108473458622</v>
       </c>
       <c r="D64">
-        <v>3065</v>
+        <v>3033</v>
       </c>
       <c r="E64">
         <v>2185697597</v>
@@ -5557,10 +5557,10 @@
         <v>147053.674096589</v>
       </c>
       <c r="H64">
-        <v>713115.0398042414</v>
+        <v>720638.838443785</v>
       </c>
       <c r="I64">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J64">
         <v>325</v>
@@ -5578,7 +5578,7 @@
         <v>377</v>
       </c>
       <c r="O64">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="P64">
         <v>334</v>
@@ -5596,7 +5596,7 @@
         <v>31572</v>
       </c>
       <c r="U64">
-        <v>0.0970796908653237</v>
+        <v>0.09606613454960092</v>
       </c>
       <c r="V64">
         <v>16</v>
@@ -5605,10 +5605,10 @@
         <v>70</v>
       </c>
       <c r="X64">
-        <v>0.7849918433931484</v>
+        <v>0.7932739861523245</v>
       </c>
       <c r="Y64">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5616,13 +5616,13 @@
         <v>88</v>
       </c>
       <c r="B65">
-        <v>81228</v>
+        <v>81094</v>
       </c>
       <c r="C65">
-        <v>6.534309387820771</v>
+        <v>6.594616573147922</v>
       </c>
       <c r="D65">
-        <v>12431</v>
+        <v>12297</v>
       </c>
       <c r="E65">
         <v>11959252354</v>
@@ -5634,10 +5634,10 @@
         <v>232128.5172413793</v>
       </c>
       <c r="H65">
-        <v>962050.7082294264</v>
+        <v>972534.1427990567</v>
       </c>
       <c r="I65">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="J65">
         <v>1169</v>
@@ -5655,7 +5655,7 @@
         <v>1336</v>
       </c>
       <c r="O65">
-        <v>2788</v>
+        <v>2654</v>
       </c>
       <c r="P65">
         <v>1245</v>
@@ -5673,7 +5673,7 @@
         <v>194918</v>
       </c>
       <c r="U65">
-        <v>0.06377553637940057</v>
+        <v>0.06308806780287095</v>
       </c>
       <c r="V65">
         <v>39</v>
@@ -5682,10 +5682,10 @@
         <v>28</v>
       </c>
       <c r="X65">
-        <v>0.7757219853591827</v>
+        <v>0.7841750020330162</v>
       </c>
       <c r="Y65">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5693,13 +5693,13 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <v>34240</v>
+        <v>34166</v>
       </c>
       <c r="C66">
-        <v>5.971398674572724</v>
+        <v>6.036395759717315</v>
       </c>
       <c r="D66">
-        <v>5734</v>
+        <v>5660</v>
       </c>
       <c r="E66">
         <v>4555663041</v>
@@ -5711,10 +5711,10 @@
         <v>180584.1840402588</v>
       </c>
       <c r="H66">
-        <v>794500.0071503314</v>
+        <v>804887.463074205</v>
       </c>
       <c r="I66">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <v>589</v>
@@ -5732,7 +5732,7 @@
         <v>587</v>
       </c>
       <c r="O66">
-        <v>1270</v>
+        <v>1196</v>
       </c>
       <c r="P66">
         <v>594</v>
@@ -5750,7 +5750,7 @@
         <v>90506</v>
       </c>
       <c r="U66">
-        <v>0.06335491569619693</v>
+        <v>0.06253729034539146</v>
       </c>
       <c r="V66">
         <v>41</v>
@@ -5759,10 +5759,10 @@
         <v>55</v>
       </c>
       <c r="X66">
-        <v>0.7785141262643879</v>
+        <v>0.7886925795053004</v>
       </c>
       <c r="Y66">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5770,13 +5770,13 @@
         <v>90</v>
       </c>
       <c r="B67">
-        <v>40364</v>
+        <v>40290</v>
       </c>
       <c r="C67">
-        <v>5.686672302056918</v>
+        <v>5.736047835990888</v>
       </c>
       <c r="D67">
-        <v>7098</v>
+        <v>7024</v>
       </c>
       <c r="E67">
         <v>5534792543</v>
@@ -5788,10 +5788,10 @@
         <v>186261.04315197</v>
       </c>
       <c r="H67">
-        <v>779767.8984220907</v>
+        <v>787982.993023918</v>
       </c>
       <c r="I67">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="J67">
         <v>787</v>
@@ -5809,7 +5809,7 @@
         <v>716</v>
       </c>
       <c r="O67">
-        <v>1527</v>
+        <v>1453</v>
       </c>
       <c r="P67">
         <v>797</v>
@@ -5827,19 +5827,19 @@
         <v>107651</v>
       </c>
       <c r="U67">
-        <v>0.06593529089372138</v>
+        <v>0.06524788436707508</v>
       </c>
       <c r="V67">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W67">
         <v>59</v>
       </c>
       <c r="X67">
-        <v>0.7848689771766695</v>
+        <v>0.7931378132118451</v>
       </c>
       <c r="Y67">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5847,13 +5847,13 @@
         <v>91</v>
       </c>
       <c r="B68">
-        <v>34849</v>
+        <v>34786</v>
       </c>
       <c r="C68">
-        <v>5.449413604378421</v>
+        <v>5.493682880606443</v>
       </c>
       <c r="D68">
-        <v>6395</v>
+        <v>6332</v>
       </c>
       <c r="E68">
         <v>5329193478</v>
@@ -5865,10 +5865,10 @@
         <v>197201.5286178862</v>
       </c>
       <c r="H68">
-        <v>833337.5258795934</v>
+        <v>841628.7867972205</v>
       </c>
       <c r="I68">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <v>584</v>
@@ -5886,7 +5886,7 @@
         <v>741</v>
       </c>
       <c r="O68">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="P68">
         <v>739</v>
@@ -5904,7 +5904,7 @@
         <v>100056</v>
       </c>
       <c r="U68">
-        <v>0.06391420804349564</v>
+        <v>0.06328456064603821</v>
       </c>
       <c r="V68">
         <v>38</v>
@@ -5913,10 +5913,10 @@
         <v>46</v>
       </c>
       <c r="X68">
-        <v>0.7496481626270524</v>
+        <v>0.7571067593177511</v>
       </c>
       <c r="Y68">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -5924,13 +5924,13 @@
         <v>92</v>
       </c>
       <c r="B69">
-        <v>28945</v>
+        <v>28900</v>
       </c>
       <c r="C69">
-        <v>5.620388349514563</v>
+        <v>5.661116552399609</v>
       </c>
       <c r="D69">
-        <v>5150</v>
+        <v>5105</v>
       </c>
       <c r="E69">
         <v>4807026895</v>
@@ -5942,10 +5942,10 @@
         <v>267894.0620771986</v>
       </c>
       <c r="H69">
-        <v>933403.2805825243</v>
+        <v>941631.125367287</v>
       </c>
       <c r="I69">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <v>476</v>
@@ -5963,7 +5963,7 @@
         <v>602</v>
       </c>
       <c r="O69">
-        <v>1223</v>
+        <v>1178</v>
       </c>
       <c r="P69">
         <v>590</v>
@@ -5981,19 +5981,19 @@
         <v>87667</v>
       </c>
       <c r="U69">
-        <v>0.05874502378317953</v>
+        <v>0.05823171775012263</v>
       </c>
       <c r="V69">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W69">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X69">
-        <v>0.7625242718446602</v>
+        <v>0.7692458374142997</v>
       </c>
       <c r="Y69">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6001,13 +6001,13 @@
         <v>93</v>
       </c>
       <c r="B70">
-        <v>28645</v>
+        <v>28604</v>
       </c>
       <c r="C70">
-        <v>6.12465255505666</v>
+        <v>6.169974115616911</v>
       </c>
       <c r="D70">
-        <v>4677</v>
+        <v>4636</v>
       </c>
       <c r="E70">
         <v>5124771631</v>
@@ -6019,10 +6019,10 @@
         <v>256324.9455219002</v>
       </c>
       <c r="H70">
-        <v>1095739.070130426</v>
+        <v>1105429.601164797</v>
       </c>
       <c r="I70">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J70">
         <v>297</v>
@@ -6040,7 +6040,7 @@
         <v>493</v>
       </c>
       <c r="O70">
-        <v>1070</v>
+        <v>1029</v>
       </c>
       <c r="P70">
         <v>551</v>
@@ -6058,19 +6058,19 @@
         <v>118629</v>
       </c>
       <c r="U70">
-        <v>0.03942543560174999</v>
+        <v>0.03907982028003271</v>
       </c>
       <c r="V70">
         <v>75</v>
       </c>
       <c r="W70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X70">
-        <v>0.7712208680778276</v>
+        <v>0.7780414150129422</v>
       </c>
       <c r="Y70">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6078,13 +6078,13 @@
         <v>94</v>
       </c>
       <c r="B71">
-        <v>26822</v>
+        <v>26776</v>
       </c>
       <c r="C71">
-        <v>5.139298716229162</v>
+        <v>5.176106707906437</v>
       </c>
       <c r="D71">
-        <v>5219</v>
+        <v>5173</v>
       </c>
       <c r="E71">
         <v>4773425856</v>
@@ -6096,10 +6096,10 @@
         <v>288293.603818146</v>
       </c>
       <c r="H71">
-        <v>914624.6131442805</v>
+        <v>922757.7529479993</v>
       </c>
       <c r="I71">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>498</v>
@@ -6117,7 +6117,7 @@
         <v>531</v>
       </c>
       <c r="O71">
-        <v>1289</v>
+        <v>1243</v>
       </c>
       <c r="P71">
         <v>621</v>
@@ -6135,7 +6135,7 @@
         <v>118280</v>
       </c>
       <c r="U71">
-        <v>0.04412411227595536</v>
+        <v>0.04373520459925601</v>
       </c>
       <c r="V71">
         <v>68</v>
@@ -6144,10 +6144,10 @@
         <v>37</v>
       </c>
       <c r="X71">
-        <v>0.7530178195056524</v>
+        <v>0.7597138990914363</v>
       </c>
       <c r="Y71">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6155,13 +6155,13 @@
         <v>95</v>
       </c>
       <c r="B72">
-        <v>42584</v>
+        <v>42493</v>
       </c>
       <c r="C72">
-        <v>6.112243433328548</v>
+        <v>6.179901105293776</v>
       </c>
       <c r="D72">
-        <v>6967</v>
+        <v>6876</v>
       </c>
       <c r="E72">
         <v>9545874181</v>
@@ -6173,10 +6173,10 @@
         <v>338015.0246931835</v>
       </c>
       <c r="H72">
-        <v>1370155.616621214</v>
+        <v>1388288.857038976</v>
       </c>
       <c r="I72">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="J72">
         <v>458</v>
@@ -6194,7 +6194,7 @@
         <v>815</v>
       </c>
       <c r="O72">
-        <v>1666</v>
+        <v>1575</v>
       </c>
       <c r="P72">
         <v>778</v>
@@ -6212,7 +6212,7 @@
         <v>160017</v>
       </c>
       <c r="U72">
-        <v>0.04353912396807839</v>
+        <v>0.04297043439134592</v>
       </c>
       <c r="V72">
         <v>70</v>
@@ -6221,10 +6221,10 @@
         <v>5</v>
       </c>
       <c r="X72">
-        <v>0.7608726855174394</v>
+        <v>0.7709424083769634</v>
       </c>
       <c r="Y72">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6232,13 +6232,13 @@
         <v>96</v>
       </c>
       <c r="B73">
-        <v>51875</v>
+        <v>51792</v>
       </c>
       <c r="C73">
-        <v>5.983275663206459</v>
+        <v>6.031442878770234</v>
       </c>
       <c r="D73">
-        <v>8670</v>
+        <v>8587</v>
       </c>
       <c r="E73">
         <v>7112300936</v>
@@ -6250,10 +6250,10 @@
         <v>174694.3900047259</v>
       </c>
       <c r="H73">
-        <v>820334.5946943483</v>
+        <v>828263.7633632235</v>
       </c>
       <c r="I73">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J73">
         <v>934</v>
@@ -6271,7 +6271,7 @@
         <v>985</v>
       </c>
       <c r="O73">
-        <v>1690</v>
+        <v>1607</v>
       </c>
       <c r="P73">
         <v>892</v>
@@ -6289,7 +6289,7 @@
         <v>76610</v>
       </c>
       <c r="U73">
-        <v>0.1131706043597442</v>
+        <v>0.1120871948831745</v>
       </c>
       <c r="V73">
         <v>12</v>
@@ -6298,10 +6298,10 @@
         <v>50</v>
       </c>
       <c r="X73">
-        <v>0.8050749711649365</v>
+        <v>0.812856643763829</v>
       </c>
       <c r="Y73">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6309,13 +6309,13 @@
         <v>97</v>
       </c>
       <c r="B74">
-        <v>53102</v>
+        <v>53001</v>
       </c>
       <c r="C74">
-        <v>5.382868727825646</v>
+        <v>5.428205653420729</v>
       </c>
       <c r="D74">
-        <v>9865</v>
+        <v>9764</v>
       </c>
       <c r="E74">
         <v>9337204772</v>
@@ -6327,10 +6327,10 @@
         <v>289110.8257575757</v>
       </c>
       <c r="H74">
-        <v>946498.2029396858</v>
+        <v>956288.8951249488</v>
       </c>
       <c r="I74">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <v>867</v>
@@ -6348,7 +6348,7 @@
         <v>963</v>
       </c>
       <c r="O74">
-        <v>2305</v>
+        <v>2204</v>
       </c>
       <c r="P74">
         <v>1176</v>
@@ -6366,7 +6366,7 @@
         <v>178053</v>
       </c>
       <c r="U74">
-        <v>0.05540485136448136</v>
+        <v>0.0548376045334816</v>
       </c>
       <c r="V74">
         <v>52</v>
@@ -6375,10 +6375,10 @@
         <v>29</v>
       </c>
       <c r="X74">
-        <v>0.7663456664977192</v>
+        <v>0.7742728390004097</v>
       </c>
       <c r="Y74">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6386,13 +6386,13 @@
         <v>98</v>
       </c>
       <c r="B75">
-        <v>139178</v>
+        <v>139017</v>
       </c>
       <c r="C75">
-        <v>5.832376482420484</v>
+        <v>5.86520124883976</v>
       </c>
       <c r="D75">
-        <v>23863</v>
+        <v>23702</v>
       </c>
       <c r="E75">
         <v>15008605608</v>
@@ -6404,10 +6404,10 @@
         <v>139253.4493236035</v>
       </c>
       <c r="H75">
-        <v>628948.8164941542</v>
+        <v>633221.0618513206</v>
       </c>
       <c r="I75">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="J75">
         <v>2905</v>
@@ -6425,7 +6425,7 @@
         <v>2032</v>
       </c>
       <c r="O75">
-        <v>4569</v>
+        <v>4408</v>
       </c>
       <c r="P75">
         <v>2497</v>
@@ -6443,7 +6443,7 @@
         <v>205613</v>
       </c>
       <c r="U75">
-        <v>0.1160578368099293</v>
+        <v>0.1152748123902672</v>
       </c>
       <c r="V75">
         <v>9</v>
@@ -6452,10 +6452,10 @@
         <v>76</v>
       </c>
       <c r="X75">
-        <v>0.8085320370447974</v>
+        <v>0.8140241329845582</v>
       </c>
       <c r="Y75">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6463,13 +6463,13 @@
         <v>99</v>
       </c>
       <c r="B76">
-        <v>44708</v>
+        <v>44610</v>
       </c>
       <c r="C76">
-        <v>5.340819495878629</v>
+        <v>5.392239816269793</v>
       </c>
       <c r="D76">
-        <v>8371</v>
+        <v>8273</v>
       </c>
       <c r="E76">
         <v>6193165142</v>
@@ -6481,10 +6481,10 @@
         <v>214997.8693782256</v>
       </c>
       <c r="H76">
-        <v>739835.7594074782</v>
+        <v>748599.6787138885</v>
       </c>
       <c r="I76">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="J76">
         <v>887</v>
@@ -6502,7 +6502,7 @@
         <v>820</v>
       </c>
       <c r="O76">
-        <v>1998</v>
+        <v>1900</v>
       </c>
       <c r="P76">
         <v>1000</v>
@@ -6520,19 +6520,19 @@
         <v>125617</v>
       </c>
       <c r="U76">
-        <v>0.06663906955268793</v>
+        <v>0.06585892036905833</v>
       </c>
       <c r="V76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W76">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X76">
-        <v>0.7613188388484052</v>
+        <v>0.7703372416293969</v>
       </c>
       <c r="Y76">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6540,13 +6540,13 @@
         <v>100</v>
       </c>
       <c r="B77">
-        <v>40653</v>
+        <v>40579</v>
       </c>
       <c r="C77">
-        <v>5.351895734597156</v>
+        <v>5.394708854028184</v>
       </c>
       <c r="D77">
-        <v>7596</v>
+        <v>7522</v>
       </c>
       <c r="E77">
         <v>6189955992</v>
@@ -6558,10 +6558,10 @@
         <v>227551.8544448941</v>
       </c>
       <c r="H77">
-        <v>814896.7867298578</v>
+        <v>822913.5857484712</v>
       </c>
       <c r="I77">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>751</v>
@@ -6579,7 +6579,7 @@
         <v>798</v>
       </c>
       <c r="O77">
-        <v>1742</v>
+        <v>1668</v>
       </c>
       <c r="P77">
         <v>948</v>
@@ -6597,7 +6597,7 @@
         <v>146021</v>
       </c>
       <c r="U77">
-        <v>0.05201991494374097</v>
+        <v>0.05151313852117161</v>
       </c>
       <c r="V77">
         <v>61</v>
@@ -6606,7 +6606,7 @@
         <v>52</v>
       </c>
       <c r="X77">
-        <v>0.7706687730384413</v>
+        <v>0.7782504653017814</v>
       </c>
       <c r="Y77">
         <v>41</v>
@@ -6617,13 +6617,13 @@
         <v>101</v>
       </c>
       <c r="B78">
-        <v>206633</v>
+        <v>206426</v>
       </c>
       <c r="C78">
-        <v>6.513665164076538</v>
+        <v>6.549879426323137</v>
       </c>
       <c r="D78">
-        <v>31723</v>
+        <v>31516</v>
       </c>
       <c r="E78">
         <v>21472177011</v>
@@ -6635,10 +6635,10 @@
         <v>147445.0833947394</v>
       </c>
       <c r="H78">
-        <v>676864.6411436497</v>
+        <v>681310.3506472902</v>
       </c>
       <c r="I78">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="J78">
         <v>3899</v>
@@ -6656,7 +6656,7 @@
         <v>2927</v>
       </c>
       <c r="O78">
-        <v>5309</v>
+        <v>5102</v>
       </c>
       <c r="P78">
         <v>2925</v>
@@ -6674,7 +6674,7 @@
         <v>265457</v>
       </c>
       <c r="U78">
-        <v>0.1195033470580923</v>
+        <v>0.1187235597479064</v>
       </c>
       <c r="V78">
         <v>8</v>
@@ -6683,7 +6683,7 @@
         <v>73</v>
       </c>
       <c r="X78">
-        <v>0.8326450840084482</v>
+        <v>0.8381139738545501</v>
       </c>
       <c r="Y78">
         <v>2</v>
